--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.067723</t>
+          <t>2025-10-16T12:16:24.160975</t>
         </is>
       </c>
     </row>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.068273</t>
+          <t>2025-10-16T12:16:24.160975</t>
         </is>
       </c>
     </row>
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.068273</t>
+          <t>2025-10-16T12:16:24.160975</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -915,13 +915,17 @@
         <v>1.55752440711501</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>148</v>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.068825</t>
+          <t>2025-10-16T12:16:24.160975</t>
         </is>
       </c>
     </row>
@@ -944,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -971,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1011,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.068825</t>
+          <t>2025-10-16T12:16:24.161975</t>
         </is>
       </c>
     </row>
@@ -1034,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1101,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.069384</t>
+          <t>2025-10-16T12:16:24.161975</t>
         </is>
       </c>
     </row>
@@ -1118,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1141,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1151,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1191,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.069384</t>
+          <t>2025-10-16T12:16:24.161975</t>
         </is>
       </c>
     </row>
@@ -1208,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1231,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1281,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.069384</t>
+          <t>2025-10-16T12:16:24.161975</t>
         </is>
       </c>
     </row>
@@ -1298,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1331,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1371,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.069939</t>
+          <t>2025-10-16T12:16:24.161975</t>
         </is>
       </c>
     </row>
@@ -1394,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1411,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1455,17 +1459,13 @@
         <v>0.9866756083837316</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.5135400655639983</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.069939</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1482,16 +1482,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1549,13 +1549,17 @@
         <v>1.004639446878559</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5818640804157564</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>410</v>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.070489</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1578,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1595,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1639,17 +1643,13 @@
         <v>1.533305250152281</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.5443459042329746</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.070489</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1666,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.070489</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.071041</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1846,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1913,13 +1913,17 @@
         <v>0.8958389105487662</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>283</v>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.071041</t>
+          <t>2025-10-16T12:16:24.162972</t>
         </is>
       </c>
     </row>
@@ -1942,10 +1946,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1959,7 +1963,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2009,7 +2013,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.071573</t>
+          <t>2025-10-16T12:16:24.163972</t>
         </is>
       </c>
     </row>
@@ -2026,16 +2030,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2049,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2059,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2099,7 +2103,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.071593</t>
+          <t>2025-10-16T12:16:24.163972</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2126,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2139,7 +2143,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2189,7 +2193,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.071593</t>
+          <t>2025-10-16T12:16:24.163972</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2216,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2239,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2279,7 +2283,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.072144</t>
+          <t>2025-10-16T12:16:24.163972</t>
         </is>
       </c>
     </row>
@@ -2296,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2329,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2363,13 +2367,17 @@
         <v>0.883944020438048</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.4090454577821077</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>65</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.072144</t>
+          <t>2025-10-16T12:16:24.163972</t>
         </is>
       </c>
     </row>
@@ -2392,10 +2400,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2409,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2453,13 +2461,17 @@
         <v>1.118386524106584</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.405083825348819</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.072144</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2476,16 +2488,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2509,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2549,7 +2561,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.072694</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2572,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2599,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2639,7 +2651,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.072694</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2656,16 +2668,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2689,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2729,7 +2741,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.073245</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2752,10 +2764,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2769,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2813,13 +2825,17 @@
         <v>1.188596917232315</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5884403511369705</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>404</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.073245</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2842,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2869,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2909,7 +2925,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.073245</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -2926,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2949,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2959,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2999,7 +3015,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.073808</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -3022,10 +3038,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3039,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3083,17 +3099,13 @@
         <v>1.115327942928919</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.5389569866079409</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.073808</t>
+          <t>2025-10-16T12:16:24.164973</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3122,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3143,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3177,13 +3189,17 @@
         <v>0.9026910598135379</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4608484485919075</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>212</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.074342</t>
+          <t>2025-10-16T12:16:24.165978</t>
         </is>
       </c>
     </row>
@@ -3200,16 +3216,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3233,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3267,13 +3283,17 @@
         <v>0.9682858694065388</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4863890037284231</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>40</v>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.074342</t>
+          <t>2025-10-16T12:16:24.166975</t>
         </is>
       </c>
     </row>
@@ -3290,16 +3310,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3313,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3323,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3363,7 +3383,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.074342</t>
+          <t>2025-10-16T12:16:24.167982</t>
         </is>
       </c>
     </row>
@@ -3380,16 +3400,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3403,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3413,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3453,7 +3473,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.075019</t>
+          <t>2025-10-16T12:16:24.167982</t>
         </is>
       </c>
     </row>
@@ -3476,10 +3496,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3493,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3537,17 +3557,13 @@
         <v>0.9716472194612185</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.075530</t>
+          <t>2025-10-16T12:16:24.167982</t>
         </is>
       </c>
     </row>
@@ -3570,10 +3586,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3597,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3637,7 +3653,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.075530</t>
+          <t>2025-10-16T12:16:24.167982</t>
         </is>
       </c>
     </row>
@@ -3660,10 +3676,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3677,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3721,17 +3737,13 @@
         <v>1.041324383661309</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4661796049705298</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.075530</t>
+          <t>2025-10-16T12:16:24.167982</t>
         </is>
       </c>
     </row>
@@ -3754,10 +3766,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3771,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3821,7 +3833,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.075530</t>
+          <t>2025-10-16T12:16:24.168978</t>
         </is>
       </c>
     </row>
@@ -3844,10 +3856,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3861,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3905,17 +3917,17 @@
         <v>0.9864967889476169</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5202230023486417</v>
+        <v>0.4436880874433667</v>
       </c>
       <c r="Y38" t="n">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.076644</t>
+          <t>2025-10-16T12:16:24.168978</t>
         </is>
       </c>
     </row>
@@ -3938,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4002,14 +4014,14 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5049512863264476</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y39" t="n">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.076644</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4026,16 +4038,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4049,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4059,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4099,7 +4111,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.076644</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4122,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4149,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4189,7 +4201,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.077193</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4212,10 +4224,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4229,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4273,17 +4285,13 @@
         <v>0.9765642526281694</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.4062858371373469</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.077193</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4300,16 +4308,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4323,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4333,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4373,7 +4381,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.077744</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4396,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4413,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4457,17 +4465,17 @@
         <v>1.002844227809013</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4090454577821077</v>
+        <v>0.4148089303468181</v>
       </c>
       <c r="Y44" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.077744</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4484,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4507,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4517,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4557,7 +4565,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.077744</t>
+          <t>2025-10-16T12:16:24.170979</t>
         </is>
       </c>
     </row>
@@ -4580,10 +4588,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4597,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4641,17 +4649,13 @@
         <v>1.056297142876964</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.405083825348819</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078294</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -4674,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4691,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4741,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078294</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -4764,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4781,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4831,7 +4835,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078805</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -4848,16 +4852,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4881,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4915,13 +4919,17 @@
         <v>0.8617891230537646</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.5264611661187159</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>326</v>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078805</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -4938,16 +4946,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4971,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5011,7 +5019,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078805</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -5034,10 +5042,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5051,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5095,17 +5103,17 @@
         <v>1.033050968544577</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y51" t="n">
         <v>300</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078805</t>
+          <t>2025-10-16T12:16:24.171978</t>
         </is>
       </c>
     </row>
@@ -5122,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5155,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5189,13 +5197,17 @@
         <v>0.9017510141581029</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>29</v>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.078805</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5212,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5245,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5285,7 +5297,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.079818</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5308,10 +5320,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5325,7 +5337,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5335,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5375,7 +5387,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.079818</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5410,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5415,7 +5427,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
         <v>0.5916727785823274</v>
@@ -5425,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5465,7 +5477,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.079818</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5500,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5505,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5555,7 +5567,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.079818</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5578,10 +5590,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5595,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5642,14 +5654,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.4790300472003629</v>
       </c>
       <c r="Y57" t="n">
-        <v>116</v>
+        <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.079818</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5666,16 +5678,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5689,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5699,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5739,7 +5751,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.080822</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5762,10 +5774,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5779,7 +5791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5829,7 +5841,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.080822</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5852,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5869,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5919,7 +5931,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.080822</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -5942,10 +5954,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5959,7 +5971,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
         <v>0.5916727785823274</v>
@@ -6009,7 +6021,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.172978</t>
         </is>
       </c>
     </row>
@@ -6032,10 +6044,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6049,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6099,7 +6111,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6116,16 +6128,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6149,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6183,13 +6195,17 @@
         <v>0.9649038083543751</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.5459212356676129</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>281</v>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6212,10 +6228,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6229,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6276,14 +6292,14 @@
         <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5079682182603347</v>
+        <v>0.5223705789444759</v>
       </c>
       <c r="Y64" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6306,10 +6322,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6323,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6367,17 +6383,17 @@
         <v>0.9706073670450134</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.439768480817761</v>
+        <v>0.4623422152178822</v>
       </c>
       <c r="Y65" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6394,16 +6410,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6427,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6461,13 +6477,17 @@
         <v>0.971230588830934</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.4675230342807256</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>329</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6484,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6517,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6557,7 +6577,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6574,16 +6594,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6597,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6607,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6641,13 +6661,17 @@
         <v>0.9786209744219123</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>54</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6670,10 +6694,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6687,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6731,17 +6755,17 @@
         <v>1.048776649432779</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>0.521406849537337</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y69" t="n">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.081821</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6764,10 +6788,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6781,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6825,17 +6849,13 @@
         <v>0.9736071147909855</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4461787651244298</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.082820</t>
+          <t>2025-10-16T12:16:24.173974</t>
         </is>
       </c>
     </row>
@@ -6858,10 +6878,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6875,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6919,17 +6939,13 @@
         <v>1.065537163083408</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.5636029531844986</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.082820</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -6952,10 +6968,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6969,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7013,17 +7029,13 @@
         <v>0.9202927341010103</v>
       </c>
       <c r="W72" t="n">
-        <v>3</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.4436880874433667</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.082820</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7040,16 +7052,16 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7073,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7113,7 +7125,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.082820</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7136,10 +7148,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7153,7 +7165,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7203,7 +7215,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.082820</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7226,10 +7238,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7243,7 +7255,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7293,7 +7305,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.083633</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7310,16 +7322,16 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7343,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7377,13 +7389,17 @@
         <v>1.008206231879329</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4807672342116082</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>286</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.084148</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7400,16 +7416,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7433,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7473,7 +7489,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.084148</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7496,10 +7512,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7513,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7557,17 +7573,13 @@
         <v>1.082748163854072</v>
       </c>
       <c r="W78" t="n">
-        <v>2</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.084148</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7584,16 +7596,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7607,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7617,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7651,13 +7663,17 @@
         <v>1.029910608313325</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.450783082786869</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>72</v>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.084148</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7680,10 +7696,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7697,7 +7713,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7747,7 +7763,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.084148</t>
+          <t>2025-10-16T12:16:24.174969</t>
         </is>
       </c>
     </row>
@@ -7770,10 +7786,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7787,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7831,13 +7847,17 @@
         <v>0.9868990308806254</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.4628711962152653</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>61</v>
+      </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -7860,10 +7880,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7877,7 +7897,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
         <v>0.8631205685666311</v>
@@ -7927,7 +7947,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -7950,10 +7970,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7967,7 +7987,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -7977,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -8017,7 +8037,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8040,10 +8060,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8057,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -8101,13 +8121,17 @@
         <v>1.114853328424364</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4092900825439996</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>404</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8124,16 +8148,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8147,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8157,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="O85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -8197,7 +8221,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8220,10 +8244,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8237,7 +8261,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>0.8631205685666311</v>
@@ -8247,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8287,7 +8311,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8310,10 +8334,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8337,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8377,7 +8401,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8394,16 +8418,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8427,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8467,7 +8491,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.085170</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8484,16 +8508,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8517,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8557,7 +8581,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8580,10 +8604,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8607,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8647,7 +8671,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.175969</t>
         </is>
       </c>
     </row>
@@ -8670,10 +8694,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8687,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -8731,17 +8755,17 @@
         <v>1.009974922261494</v>
       </c>
       <c r="W91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.4739308912122809</v>
       </c>
       <c r="Y91" t="n">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -8758,16 +8782,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8781,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8791,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8831,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -8854,10 +8878,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8871,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8921,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -8944,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8961,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -8971,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -9011,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9034,10 +9058,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9051,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -9095,17 +9119,17 @@
         <v>1.058114686413449</v>
       </c>
       <c r="W95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y95" t="n">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9128,10 +9152,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9145,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9192,14 +9216,14 @@
         <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5943424190778207</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y96" t="n">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9222,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9239,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9283,17 +9307,13 @@
         <v>0.9596054932520492</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.5325044568707964</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9316,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9343,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9383,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.086171</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9406,10 +9426,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9423,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9467,17 +9487,13 @@
         <v>1.028562284793275</v>
       </c>
       <c r="W99" t="n">
-        <v>1</v>
-      </c>
-      <c r="X99" t="n">
-        <v>0.4239730734667366</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087170</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9494,16 +9510,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9517,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9527,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9567,7 +9583,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087354</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9584,16 +9600,16 @@
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9617,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9657,7 +9673,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087354</t>
+          <t>2025-10-16T12:16:24.176969</t>
         </is>
       </c>
     </row>
@@ -9674,16 +9690,16 @@
         <v>1</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9697,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -9707,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9747,7 +9763,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087354</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -9764,16 +9780,16 @@
         <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9787,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -9797,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9837,7 +9853,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087354</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -9854,16 +9870,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -9887,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9927,7 +9943,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087901</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -9950,10 +9966,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9967,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -10017,7 +10033,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087901</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10040,10 +10056,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -10057,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -10101,17 +10117,13 @@
         <v>0.9716554702891482</v>
       </c>
       <c r="W106" t="n">
-        <v>2</v>
-      </c>
-      <c r="X106" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087901</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10128,16 +10140,16 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -10161,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10195,13 +10207,17 @@
         <v>0.8240149961900529</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>26</v>
+      </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.087901</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10218,16 +10234,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10251,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -10291,7 +10307,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088441</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10308,16 +10324,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10341,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10375,13 +10391,17 @@
         <v>0.9544205561727213</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>196</v>
+      </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088441</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10404,10 +10424,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10421,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10465,17 +10485,13 @@
         <v>1.024055358118604</v>
       </c>
       <c r="W110" t="n">
-        <v>2</v>
-      </c>
-      <c r="X110" t="n">
-        <v>0.5122486851695403</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088441</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10492,16 +10508,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10525,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10565,7 +10581,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088983</t>
+          <t>2025-10-16T12:16:24.177969</t>
         </is>
       </c>
     </row>
@@ -10582,16 +10598,16 @@
         <v>1</v>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10615,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10655,7 +10671,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088983</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -10678,10 +10694,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10695,7 +10711,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
         <v>0.5916727785823274</v>
@@ -10705,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10745,7 +10761,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.088983</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -10762,16 +10778,16 @@
         <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10795,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10829,13 +10845,17 @@
         <v>0.9140035346338973</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
-      </c>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.5202230023486417</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>318</v>
+      </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.089521</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -10858,10 +10878,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10875,7 +10895,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10925,7 +10945,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.089521</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -10948,10 +10968,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10965,7 +10985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="n">
         <v>0.5916727785823274</v>
@@ -11015,7 +11035,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090061</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -11038,10 +11058,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11055,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11099,17 +11119,13 @@
         <v>1.00769768003025</v>
       </c>
       <c r="W117" t="n">
-        <v>1</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0.4013904261062382</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090061</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -11126,16 +11142,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -11159,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -11193,13 +11209,17 @@
         <v>1.067566042016649</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>29</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090061</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -11222,10 +11242,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11239,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11289,7 +11309,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090599</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -11312,10 +11332,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11329,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -11373,17 +11393,17 @@
         <v>0.9843953866172596</v>
       </c>
       <c r="W120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5193700315892974</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y120" t="n">
-        <v>183</v>
+        <v>404</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090599</t>
+          <t>2025-10-16T12:16:24.178969</t>
         </is>
       </c>
     </row>
@@ -11406,10 +11426,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11423,7 +11443,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11473,7 +11493,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.090599</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11496,10 +11516,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11523,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11563,7 +11583,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.091136</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11586,10 +11606,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11603,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11647,17 +11667,13 @@
         <v>0.9094630473181573</v>
       </c>
       <c r="W123" t="n">
-        <v>2</v>
-      </c>
-      <c r="X123" t="n">
-        <v>0.4646405864041511</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.091136</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11680,10 +11696,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11697,7 +11713,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11747,7 +11763,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.091136</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11770,10 +11786,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -11787,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11831,17 +11847,13 @@
         <v>1.011284326800966</v>
       </c>
       <c r="W125" t="n">
-        <v>2</v>
-      </c>
-      <c r="X125" t="n">
-        <v>0.4031272813482388</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.091674</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11864,10 +11876,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -11881,7 +11893,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
         <v>0.9852281360342515</v>
@@ -11891,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11931,7 +11943,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.091674</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -11954,10 +11966,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -11971,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -12021,7 +12033,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.092193</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -12038,16 +12050,16 @@
         <v>1</v>
       </c>
       <c r="D128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -12071,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -12105,13 +12117,17 @@
         <v>0.9688974621218152</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
-      </c>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0.5815132947852186</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>338</v>
+      </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.092354</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -12128,16 +12144,16 @@
         <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12161,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -12201,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.092866</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -12218,16 +12234,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12251,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -12291,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.092866</t>
+          <t>2025-10-16T12:16:24.179972</t>
         </is>
       </c>
     </row>
@@ -12308,16 +12324,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12341,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12381,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.093471</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12398,16 +12414,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12431,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12471,7 +12487,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.093471</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12494,10 +12510,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12511,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12555,13 +12571,17 @@
         <v>1.090240846788826</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
-      </c>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>301</v>
+      </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094047</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12578,16 +12598,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12611,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12651,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094047</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12674,10 +12694,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -12701,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12741,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094047</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12764,10 +12784,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -12781,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12825,17 +12845,17 @@
         <v>1.126176833627917</v>
       </c>
       <c r="W136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y136" t="n">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094047</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12852,16 +12872,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -12875,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12885,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12919,13 +12939,17 @@
         <v>0.9086590214532684</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.5122486851695403</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>53</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094606</t>
+          <t>2025-10-16T12:16:24.180971</t>
         </is>
       </c>
     </row>
@@ -12948,10 +12972,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -12965,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -13015,7 +13039,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094606</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13038,10 +13062,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -13055,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -13105,7 +13129,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.094606</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13122,16 +13146,16 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -13155,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -13189,13 +13213,17 @@
         <v>0.9429649997118129</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>127</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095164</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13218,10 +13246,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -13235,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13279,17 +13307,13 @@
         <v>1.110344019123662</v>
       </c>
       <c r="W141" t="n">
-        <v>1</v>
-      </c>
-      <c r="X141" t="n">
-        <v>0.4900998503939086</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095164</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13312,10 +13336,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -13329,7 +13353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13339,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -13379,7 +13403,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095164</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13402,10 +13426,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -13419,7 +13443,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13469,7 +13493,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095720</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13486,16 +13510,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -13519,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13559,7 +13583,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095720</t>
+          <t>2025-10-16T12:16:24.181972</t>
         </is>
       </c>
     </row>
@@ -13582,10 +13606,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -13599,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13643,17 +13667,13 @@
         <v>1.136565916629921</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
-      </c>
-      <c r="X145" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095720</t>
+          <t>2025-10-16T12:16:24.182973</t>
         </is>
       </c>
     </row>
@@ -13670,16 +13690,16 @@
         <v>1</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -13703,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13743,7 +13763,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.095720</t>
+          <t>2025-10-16T12:16:24.182973</t>
         </is>
       </c>
     </row>
@@ -13766,10 +13786,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -13783,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13833,7 +13853,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.096234</t>
+          <t>2025-10-16T12:16:24.182973</t>
         </is>
       </c>
     </row>
@@ -13850,16 +13870,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -13873,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13883,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13917,13 +13937,17 @@
         <v>0.9845502817802952</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.5005358046457723</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>109</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.096594</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -13940,16 +13964,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -13973,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -14013,7 +14037,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.096594</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -14030,16 +14054,16 @@
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -14053,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -14063,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -14103,7 +14127,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.096594</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -14120,16 +14144,16 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -14143,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14153,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -14193,7 +14217,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097140</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -14216,10 +14240,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -14233,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14283,7 +14307,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097140</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -14300,16 +14324,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -14333,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -14373,7 +14397,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097140</t>
+          <t>2025-10-16T12:16:24.183976</t>
         </is>
       </c>
     </row>
@@ -14396,10 +14420,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -14423,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14463,7 +14487,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097140</t>
+          <t>2025-10-16T12:16:24.184976</t>
         </is>
       </c>
     </row>
@@ -14486,10 +14510,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -14503,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14547,17 +14571,13 @@
         <v>1.070793474551282</v>
       </c>
       <c r="W155" t="n">
-        <v>2</v>
-      </c>
-      <c r="X155" t="n">
-        <v>0.471259567615395</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097647</t>
+          <t>2025-10-16T12:16:24.184976</t>
         </is>
       </c>
     </row>
@@ -14574,16 +14594,16 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -14597,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -14607,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14647,7 +14667,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097677</t>
+          <t>2025-10-16T12:16:24.184976</t>
         </is>
       </c>
     </row>
@@ -14664,16 +14684,16 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -14697,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14731,13 +14751,17 @@
         <v>1.041453507577484</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
-      </c>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>333</v>
+      </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097677</t>
+          <t>2025-10-16T12:16:24.184976</t>
         </is>
       </c>
     </row>
@@ -14754,16 +14778,16 @@
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -14787,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14821,13 +14845,17 @@
         <v>1.022715378759011</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
-      </c>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.4199949831636006</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>307</v>
+      </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097677</t>
+          <t>2025-10-16T12:16:24.185974</t>
         </is>
       </c>
     </row>
@@ -14844,16 +14872,16 @@
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -14867,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -14877,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14917,7 +14945,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.097677</t>
+          <t>2025-10-16T12:16:24.185974</t>
         </is>
       </c>
     </row>
@@ -14940,10 +14968,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -14957,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -15001,13 +15029,17 @@
         <v>1.063372160358065</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
-      </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0.4281848449949526</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>393</v>
+      </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098213</t>
+          <t>2025-10-16T12:16:24.185974</t>
         </is>
       </c>
     </row>
@@ -15030,10 +15062,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -15057,7 +15089,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -15097,7 +15129,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098213</t>
+          <t>2025-10-16T12:16:24.185974</t>
         </is>
       </c>
     </row>
@@ -15114,16 +15146,16 @@
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -15137,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -15147,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -15187,7 +15219,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098213</t>
+          <t>2025-10-16T12:16:24.185974</t>
         </is>
       </c>
     </row>
@@ -15210,10 +15242,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -15227,7 +15259,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15277,7 +15309,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098213</t>
+          <t>2025-10-16T12:16:24.186969</t>
         </is>
       </c>
     </row>
@@ -15300,10 +15332,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -15317,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -15367,7 +15399,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098720</t>
+          <t>2025-10-16T12:16:24.186969</t>
         </is>
       </c>
     </row>
@@ -15390,10 +15422,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -15407,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15451,17 +15483,13 @@
         <v>0.9607124179344575</v>
       </c>
       <c r="W165" t="n">
-        <v>2</v>
-      </c>
-      <c r="X165" t="n">
-        <v>0.5829919351087561</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098752</t>
+          <t>2025-10-16T12:16:24.186969</t>
         </is>
       </c>
     </row>
@@ -15484,10 +15512,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -15501,7 +15529,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15551,7 +15579,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098752</t>
+          <t>2025-10-16T12:16:24.186969</t>
         </is>
       </c>
     </row>
@@ -15574,10 +15602,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -15591,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15635,17 +15663,13 @@
         <v>0.9732462854939135</v>
       </c>
       <c r="W167" t="n">
-        <v>2</v>
-      </c>
-      <c r="X167" t="n">
-        <v>0.5852601757026697</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098752</t>
+          <t>2025-10-16T12:16:24.186969</t>
         </is>
       </c>
     </row>
@@ -15668,10 +15692,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -15685,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -15729,17 +15753,17 @@
         <v>0.9473607130705014</v>
       </c>
       <c r="W168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X168" t="n">
-        <v>0.4764923982534325</v>
+        <v>0.5361410903109534</v>
       </c>
       <c r="Y168" t="n">
         <v>234</v>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.098752</t>
+          <t>2025-10-16T12:16:24.187969</t>
         </is>
       </c>
     </row>
@@ -15762,10 +15786,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -15779,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15823,17 +15847,13 @@
         <v>0.9881321394574124</v>
       </c>
       <c r="W169" t="n">
-        <v>1</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5818640804157564</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.099258</t>
+          <t>2025-10-16T12:16:24.187969</t>
         </is>
       </c>
     </row>
@@ -15850,16 +15870,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -15873,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -15883,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15917,13 +15937,17 @@
         <v>0.9159484721061849</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5939819704323989</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>142</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.099258</t>
+          <t>2025-10-16T12:16:24.187969</t>
         </is>
       </c>
     </row>
@@ -15946,10 +15970,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -15963,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -16007,17 +16031,13 @@
         <v>0.9889975295679678</v>
       </c>
       <c r="W171" t="n">
-        <v>2</v>
-      </c>
-      <c r="X171" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y171" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.099258</t>
+          <t>2025-10-16T12:16:24.187969</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.654672</t>
+          <t>2025-10-17T07:09:25.029375</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.029375</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.029375</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.030375</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.030375</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.030375</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.030375</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.031375</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.031375</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.655673</t>
+          <t>2025-10-17T07:09:25.031375</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.031375</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.031375</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.032374</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.032374</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.032374</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.032374</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.032374</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.656672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.657672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.658672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.659672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.660675</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661672</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.661780</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.662786</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.662786</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.662786</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.662786</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.663783</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.664778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.665778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.666778</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.667869</t>
+          <t>2025-10-17T07:09:25.033192</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.667869</t>
+          <t>2025-10-17T07:09:25.044030</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.667869</t>
+          <t>2025-10-17T07:09:25.044030</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.668397</t>
+          <t>2025-10-17T07:09:25.044030</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.668397</t>
+          <t>2025-10-17T07:09:25.044030</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.668397</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.668397</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.668397</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.669396</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.669396</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.673696</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.673696</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.673696</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.673696</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.673696</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.674555</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.674555</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12291,7 +12291,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.675065</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.675081</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.675081</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12561,7 +12561,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.675081</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12651,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.675081</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676039</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676039</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676570</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13015,7 +13015,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676570</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13105,7 +13105,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676570</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.676570</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.677568</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.677568</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13469,7 +13469,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.677568</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.677568</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.677568</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.678567</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.678567</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.678567</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.678567</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14103,7 +14103,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.678567</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.679747</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.679747</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.679747</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.679747</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.679747</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14647,7 +14647,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.680752</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14737,7 +14737,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.680752</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.680752</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -14917,7 +14917,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.680752</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.680752</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15097,7 +15097,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15187,7 +15187,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15367,7 +15367,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15551,7 +15551,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.681755</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15645,7 +15645,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.682748</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.682748</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.682748</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.682748</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:06.683751</t>
+          <t>2025-10-17T07:09:25.044743</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.8631205685666311</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.029375</t>
+          <t>2025-10-19T23:55:00.983758</t>
         </is>
       </c>
     </row>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.029375</t>
+          <t>2025-10-19T23:55:00.983758</t>
         </is>
       </c>
     </row>
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.029375</t>
+          <t>2025-10-19T23:55:00.984758</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -915,13 +915,17 @@
         <v>1.557524442672729</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>148</v>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.030375</t>
+          <t>2025-10-19T23:55:00.984758</t>
         </is>
       </c>
     </row>
@@ -944,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -961,7 +965,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.5916727785823274</v>
@@ -971,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1011,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.030375</t>
+          <t>2025-10-19T23:55:00.984758</t>
         </is>
       </c>
     </row>
@@ -1034,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1051,7 +1055,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0.8631205685666311</v>
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1101,7 +1105,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.030375</t>
+          <t>2025-10-19T23:55:00.984758</t>
         </is>
       </c>
     </row>
@@ -1118,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1141,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1151,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1191,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.030375</t>
+          <t>2025-10-19T23:55:00.985758</t>
         </is>
       </c>
     </row>
@@ -1208,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1231,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1241,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1281,7 +1285,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.031375</t>
+          <t>2025-10-19T23:55:00.985758</t>
         </is>
       </c>
     </row>
@@ -1298,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1321,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1331,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1371,7 +1375,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.031375</t>
+          <t>2025-10-19T23:55:00.985758</t>
         </is>
       </c>
     </row>
@@ -1394,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1411,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1455,17 +1459,13 @@
         <v>0.9866757392883301</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.5135400655639983</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.031375</t>
+          <t>2025-10-19T23:55:00.985758</t>
         </is>
       </c>
     </row>
@@ -1482,16 +1482,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1549,13 +1549,17 @@
         <v>1.004639625549316</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5818640804157564</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>410</v>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.031375</t>
+          <t>2025-10-19T23:55:00.985758</t>
         </is>
       </c>
     </row>
@@ -1578,10 +1582,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1595,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1639,17 +1643,13 @@
         <v>1.533305406570435</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.5443459042329746</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.031375</t>
+          <t>2025-10-19T23:55:00.986757</t>
         </is>
       </c>
     </row>
@@ -1666,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.032374</t>
+          <t>2025-10-19T23:55:00.986757</t>
         </is>
       </c>
     </row>
@@ -1762,10 +1762,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.032374</t>
+          <t>2025-10-19T23:55:00.986757</t>
         </is>
       </c>
     </row>
@@ -1846,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1913,13 +1913,17 @@
         <v>0.8958388566970825</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>283</v>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.032374</t>
+          <t>2025-10-19T23:55:00.986757</t>
         </is>
       </c>
     </row>
@@ -1942,10 +1946,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1959,7 +1963,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2009,7 +2013,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.032374</t>
+          <t>2025-10-19T23:55:00.987757</t>
         </is>
       </c>
     </row>
@@ -2026,16 +2030,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2049,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2059,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2099,7 +2103,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.032374</t>
+          <t>2025-10-19T23:55:00.987757</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2126,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2139,7 +2143,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2189,7 +2193,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.987757</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2216,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2229,7 +2233,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.5916727785823274</v>
@@ -2239,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2279,7 +2283,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2296,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2319,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2329,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2363,13 +2367,17 @@
         <v>0.883944034576416</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.4090454577821077</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>65</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2392,10 +2400,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2409,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2453,13 +2461,17 @@
         <v>1.118386507034302</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.405083825348819</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2476,16 +2488,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2499,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2509,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2549,7 +2561,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2572,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2589,7 +2601,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2599,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2639,7 +2651,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2656,16 +2668,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2679,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2689,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2729,7 +2741,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2752,10 +2764,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2769,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2813,13 +2825,17 @@
         <v>1.188596963882446</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5884403511369705</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>404</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2842,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2859,7 +2875,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>0.5916727785823274</v>
@@ -2869,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2909,7 +2925,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.988759</t>
         </is>
       </c>
     </row>
@@ -2926,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2949,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2959,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2999,7 +3015,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3022,10 +3038,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3039,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3083,17 +3099,13 @@
         <v>1.115327835083008</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.5389569866079409</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3122,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3133,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3143,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3177,13 +3189,17 @@
         <v>0.9026910066604614</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.4608484485919075</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>212</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3200,16 +3216,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3223,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3233,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3267,13 +3283,17 @@
         <v>0.9682859182357788</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4863890037284231</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>40</v>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3290,16 +3310,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3313,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3323,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3363,7 +3383,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3380,16 +3400,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3403,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3413,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3453,7 +3473,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3476,10 +3496,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3493,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3537,17 +3557,13 @@
         <v>0.9716472029685974</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3570,10 +3586,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3587,7 +3603,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0.9852281360342515</v>
@@ -3597,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3637,7 +3653,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.989760</t>
         </is>
       </c>
     </row>
@@ -3660,10 +3676,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3677,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3721,17 +3737,13 @@
         <v>1.041324496269226</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4661796049705298</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -3754,10 +3766,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3771,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3821,7 +3833,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -3844,10 +3856,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3861,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3905,17 +3917,17 @@
         <v>0.9864968061447144</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5202230023486417</v>
+        <v>0.4436880874433667</v>
       </c>
       <c r="Y38" t="n">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -3938,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4002,14 +4014,14 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5049512863264476</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y39" t="n">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -4026,16 +4038,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4049,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4059,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4099,7 +4111,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -4122,10 +4134,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4139,7 +4151,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>0.5916727785823274</v>
@@ -4149,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4189,7 +4201,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -4212,10 +4224,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4229,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4273,17 +4285,13 @@
         <v>0.9765642881393433</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.4062858371373469</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -4300,16 +4308,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4323,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4333,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4373,7 +4381,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.990757</t>
         </is>
       </c>
     </row>
@@ -4396,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4413,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4457,17 +4465,17 @@
         <v>1.002844333648682</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4090454577821077</v>
+        <v>0.4148089303468181</v>
       </c>
       <c r="Y44" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4484,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4507,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4517,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4557,7 +4565,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4580,10 +4588,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4597,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4641,17 +4649,13 @@
         <v>1.056297183036804</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.405083825348819</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4674,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4691,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4741,7 +4745,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4764,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4781,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4831,7 +4835,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4848,16 +4852,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4871,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4881,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4915,13 +4919,17 @@
         <v>0.8617891073226929</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.5264611661187159</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>326</v>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -4938,16 +4946,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4961,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4971,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5011,7 +5019,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -5034,10 +5042,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5051,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5095,17 +5103,17 @@
         <v>1.033051013946533</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y51" t="n">
         <v>300</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.991756</t>
         </is>
       </c>
     </row>
@@ -5122,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5145,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5155,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5189,13 +5197,17 @@
         <v>0.9017509818077087</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>29</v>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5212,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5235,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -5245,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5285,7 +5297,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5308,10 +5320,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5325,7 +5337,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5335,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5375,7 +5387,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5410,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5415,7 +5427,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>0.5916727785823274</v>
@@ -5425,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5465,7 +5477,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5488,10 +5500,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5505,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5555,7 +5567,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5578,10 +5590,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5595,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5642,14 +5654,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.4790300472003629</v>
       </c>
       <c r="Y57" t="n">
-        <v>116</v>
+        <v>419</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5666,16 +5678,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5689,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5699,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5739,7 +5751,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5762,10 +5774,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5779,7 +5791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="n">
         <v>0.5916727785823274</v>
@@ -5829,7 +5841,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5852,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5869,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5919,7 +5931,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -5942,10 +5954,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5959,7 +5971,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>0.5916727785823274</v>
@@ -6009,7 +6021,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.992756</t>
         </is>
       </c>
     </row>
@@ -6032,10 +6044,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6049,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6099,7 +6111,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6116,16 +6128,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6139,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6149,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6183,13 +6195,17 @@
         <v>0.9649037718772888</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.5459212356676129</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>281</v>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6212,10 +6228,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6229,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6276,14 +6292,14 @@
         <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5079682182603347</v>
+        <v>0.5223705789444759</v>
       </c>
       <c r="Y64" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6306,10 +6322,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6323,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6367,17 +6383,17 @@
         <v>0.9706073999404907</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.439768480817761</v>
+        <v>0.4623422152178822</v>
       </c>
       <c r="Y65" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6394,16 +6410,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6417,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6427,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6461,13 +6477,17 @@
         <v>0.9712306261062622</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.4675230342807256</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>329</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6484,16 +6504,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6507,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -6517,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6557,7 +6577,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6574,16 +6594,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6597,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6607,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6641,13 +6661,17 @@
         <v>0.9786210060119629</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>54</v>
+      </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6670,10 +6694,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6687,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6731,17 +6755,17 @@
         <v>1.048776626586914</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>0.521406849537337</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y69" t="n">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.993757</t>
         </is>
       </c>
     </row>
@@ -6764,10 +6788,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6781,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6825,17 +6849,13 @@
         <v>0.9736071825027466</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4461787651244298</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -6858,10 +6878,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6875,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6919,17 +6939,13 @@
         <v>1.065537214279175</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.5636029531844986</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -6952,10 +6968,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6969,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7013,17 +7029,13 @@
         <v>0.9202927350997925</v>
       </c>
       <c r="W72" t="n">
-        <v>3</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.4436880874433667</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7040,16 +7052,16 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7063,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7073,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7113,7 +7125,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7136,10 +7148,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7153,7 +7165,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>0.5916727785823274</v>
@@ -7203,7 +7215,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7226,10 +7238,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7243,7 +7255,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7293,7 +7305,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7310,16 +7322,16 @@
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7333,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7343,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7377,13 +7389,17 @@
         <v>1.008206248283386</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4807672342116082</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>286</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7400,16 +7416,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7423,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7433,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7473,7 +7489,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7496,10 +7512,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7513,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7557,17 +7573,13 @@
         <v>1.082748174667358</v>
       </c>
       <c r="W78" t="n">
-        <v>2</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.994756</t>
         </is>
       </c>
     </row>
@@ -7584,16 +7596,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7607,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -7617,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7651,13 +7663,17 @@
         <v>1.029910564422607</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.450783082786869</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>72</v>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -7680,10 +7696,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7747,7 +7763,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -7770,10 +7786,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7787,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7831,13 +7847,17 @@
         <v>0.9868990182876587</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.4628711962152653</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>61</v>
+      </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -7860,10 +7880,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7877,7 +7897,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>0.8631205685666311</v>
@@ -7927,7 +7947,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -7950,10 +7970,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7967,7 +7987,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -7977,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -8017,7 +8037,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -8040,10 +8060,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8057,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -8101,13 +8121,17 @@
         <v>1.114853382110596</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.4092900825439996</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>404</v>
+      </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -8124,16 +8148,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8147,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8157,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="O85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -8197,7 +8221,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -8220,10 +8244,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8237,7 +8261,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="n">
         <v>0.8631205685666311</v>
@@ -8247,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8287,7 +8311,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.995757</t>
         </is>
       </c>
     </row>
@@ -8310,10 +8334,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8327,7 +8351,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>0.8631205685666311</v>
@@ -8337,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8377,7 +8401,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.997759</t>
         </is>
       </c>
     </row>
@@ -8394,16 +8418,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8417,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -8427,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8467,7 +8491,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.997759</t>
         </is>
       </c>
     </row>
@@ -8484,16 +8508,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8507,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8517,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8557,7 +8581,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.997759</t>
         </is>
       </c>
     </row>
@@ -8580,10 +8604,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8597,7 +8621,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>0.9852281360342515</v>
@@ -8607,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8647,7 +8671,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.998768</t>
         </is>
       </c>
     </row>
@@ -8670,10 +8694,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8687,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -8731,17 +8755,17 @@
         <v>1.009974956512451</v>
       </c>
       <c r="W91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.4739308912122809</v>
       </c>
       <c r="Y91" t="n">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.998768</t>
         </is>
       </c>
     </row>
@@ -8758,16 +8782,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8781,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8791,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8831,7 +8855,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.998768</t>
         </is>
       </c>
     </row>
@@ -8854,10 +8878,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8871,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8921,7 +8945,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.999755</t>
         </is>
       </c>
     </row>
@@ -8944,10 +8968,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8961,7 +8985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>0.5916727785823274</v>
@@ -8971,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -9011,7 +9035,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.999755</t>
         </is>
       </c>
     </row>
@@ -9034,10 +9058,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -9051,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -9095,17 +9119,17 @@
         <v>1.058114528656006</v>
       </c>
       <c r="W95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y95" t="n">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.999755</t>
         </is>
       </c>
     </row>
@@ -9128,10 +9152,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -9145,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9192,14 +9216,14 @@
         <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5943424190778207</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y96" t="n">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.999755</t>
         </is>
       </c>
     </row>
@@ -9222,10 +9246,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -9239,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -9283,17 +9307,13 @@
         <v>0.9596054553985596</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.5325044568707964</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:00.999755</t>
         </is>
       </c>
     </row>
@@ -9316,10 +9336,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -9333,7 +9353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>0.5916727785823274</v>
@@ -9343,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9383,7 +9403,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.000753</t>
         </is>
       </c>
     </row>
@@ -9406,10 +9426,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9423,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -9467,17 +9487,13 @@
         <v>1.028562307357788</v>
       </c>
       <c r="W99" t="n">
-        <v>1</v>
-      </c>
-      <c r="X99" t="n">
-        <v>0.4239730734667366</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.000753</t>
         </is>
       </c>
     </row>
@@ -9494,16 +9510,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9517,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9527,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9567,7 +9583,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.000753</t>
         </is>
       </c>
     </row>
@@ -9584,16 +9600,16 @@
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9607,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -9617,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9657,7 +9673,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.000753</t>
         </is>
       </c>
     </row>
@@ -9674,16 +9690,16 @@
         <v>1</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -9697,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -9707,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9747,7 +9763,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.000753</t>
         </is>
       </c>
     </row>
@@ -9764,16 +9780,16 @@
         <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9787,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -9797,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9837,7 +9853,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.001754</t>
         </is>
       </c>
     </row>
@@ -9854,16 +9870,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -9877,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -9887,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9927,7 +9943,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.001754</t>
         </is>
       </c>
     </row>
@@ -9950,10 +9966,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9967,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -10017,7 +10033,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.001754</t>
         </is>
       </c>
     </row>
@@ -10040,10 +10056,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -10057,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -10101,17 +10117,13 @@
         <v>0.9716554284095764</v>
       </c>
       <c r="W106" t="n">
-        <v>2</v>
-      </c>
-      <c r="X106" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.001754</t>
         </is>
       </c>
     </row>
@@ -10128,16 +10140,16 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -10151,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10161,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10195,13 +10207,17 @@
         <v>0.8240150809288025</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>26</v>
+      </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.002753</t>
         </is>
       </c>
     </row>
@@ -10218,16 +10234,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10241,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -10251,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -10291,7 +10307,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.002753</t>
         </is>
       </c>
     </row>
@@ -10308,16 +10324,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10331,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -10341,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10375,13 +10391,17 @@
         <v>0.9544205665588379</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
-      </c>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>196</v>
+      </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.002753</t>
         </is>
       </c>
     </row>
@@ -10404,10 +10424,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10421,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10465,17 +10485,13 @@
         <v>1.024055361747742</v>
       </c>
       <c r="W110" t="n">
-        <v>2</v>
-      </c>
-      <c r="X110" t="n">
-        <v>0.5122486851695403</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.002753</t>
         </is>
       </c>
     </row>
@@ -10492,16 +10508,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10515,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -10525,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10565,7 +10581,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.003754</t>
         </is>
       </c>
     </row>
@@ -10582,16 +10598,16 @@
         <v>1</v>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10605,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -10615,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10655,7 +10671,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.003754</t>
         </is>
       </c>
     </row>
@@ -10678,10 +10694,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10695,7 +10711,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L113" t="n">
         <v>0.5916727785823274</v>
@@ -10705,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10745,7 +10761,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.033192</t>
+          <t>2025-10-19T23:55:01.003754</t>
         </is>
       </c>
     </row>
@@ -10762,16 +10778,16 @@
         <v>1</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10785,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -10795,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10829,13 +10845,17 @@
         <v>0.9140036106109619</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
-      </c>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.5202230023486417</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>318</v>
+      </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044030</t>
+          <t>2025-10-19T23:55:01.003754</t>
         </is>
       </c>
     </row>
@@ -10858,10 +10878,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10875,7 +10895,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L115" t="n">
         <v>0.5916727785823274</v>
@@ -10925,7 +10945,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044030</t>
+          <t>2025-10-19T23:55:01.003754</t>
         </is>
       </c>
     </row>
@@ -10948,10 +10968,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10965,7 +10985,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L116" t="n">
         <v>0.5916727785823274</v>
@@ -11015,7 +11035,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044030</t>
+          <t>2025-10-19T23:55:01.004763</t>
         </is>
       </c>
     </row>
@@ -11038,10 +11058,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11055,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -11099,17 +11119,13 @@
         <v>1.007697701454163</v>
       </c>
       <c r="W117" t="n">
-        <v>1</v>
-      </c>
-      <c r="X117" t="n">
-        <v>0.4013904261062382</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044030</t>
+          <t>2025-10-19T23:55:01.004763</t>
         </is>
       </c>
     </row>
@@ -11126,16 +11142,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -11149,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -11159,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -11193,13 +11209,17 @@
         <v>1.067566156387329</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>29</v>
+      </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.004763</t>
         </is>
       </c>
     </row>
@@ -11222,10 +11242,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -11239,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -11289,7 +11309,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.004763</t>
         </is>
       </c>
     </row>
@@ -11312,10 +11332,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11329,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -11373,17 +11393,17 @@
         <v>0.9843953847885132</v>
       </c>
       <c r="W120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5193700315892974</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y120" t="n">
-        <v>183</v>
+        <v>404</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.005763</t>
         </is>
       </c>
     </row>
@@ -11406,10 +11426,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -11423,7 +11443,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L121" t="n">
         <v>0.9852281360342515</v>
@@ -11473,7 +11493,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.005763</t>
         </is>
       </c>
     </row>
@@ -11496,10 +11516,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -11513,7 +11533,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="n">
         <v>0.8631205685666311</v>
@@ -11523,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11563,7 +11583,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.005763</t>
         </is>
       </c>
     </row>
@@ -11586,10 +11606,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -11603,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -11647,17 +11667,13 @@
         <v>0.9094631671905518</v>
       </c>
       <c r="W123" t="n">
-        <v>2</v>
-      </c>
-      <c r="X123" t="n">
-        <v>0.4646405864041511</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.005763</t>
         </is>
       </c>
     </row>
@@ -11680,10 +11696,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -11697,7 +11713,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L124" t="n">
         <v>0.8631205685666311</v>
@@ -11747,7 +11763,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.005763</t>
         </is>
       </c>
     </row>
@@ -11770,10 +11786,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -11787,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -11831,17 +11847,13 @@
         <v>1.011284351348877</v>
       </c>
       <c r="W125" t="n">
-        <v>2</v>
-      </c>
-      <c r="X125" t="n">
-        <v>0.4031272813482388</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.006766</t>
         </is>
       </c>
     </row>
@@ -11864,10 +11876,10 @@
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -11881,7 +11893,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L126" t="n">
         <v>0.9852281360342515</v>
@@ -11891,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11931,7 +11943,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.006766</t>
         </is>
       </c>
     </row>
@@ -11954,10 +11966,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -11971,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -12021,7 +12033,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.006766</t>
         </is>
       </c>
     </row>
@@ -12038,16 +12050,16 @@
         <v>1</v>
       </c>
       <c r="D128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -12061,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -12071,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -12105,13 +12117,17 @@
         <v>0.9688973426818848</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
-      </c>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0.5815132947852186</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>338</v>
+      </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.006766</t>
         </is>
       </c>
     </row>
@@ -12128,16 +12144,16 @@
         <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -12151,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -12161,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -12201,7 +12217,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.007758</t>
         </is>
       </c>
     </row>
@@ -12218,16 +12234,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12241,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -12251,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -12291,7 +12307,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.007758</t>
         </is>
       </c>
     </row>
@@ -12308,16 +12324,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12331,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -12341,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12381,7 +12397,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.008759</t>
         </is>
       </c>
     </row>
@@ -12398,16 +12414,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12421,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -12431,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12471,7 +12487,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.008759</t>
         </is>
       </c>
     </row>
@@ -12494,10 +12510,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -12511,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -12555,13 +12571,17 @@
         <v>1.090240955352783</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
-      </c>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>301</v>
+      </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.008759</t>
         </is>
       </c>
     </row>
@@ -12578,16 +12598,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12601,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -12611,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12651,7 +12671,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.008759</t>
         </is>
       </c>
     </row>
@@ -12674,10 +12694,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -12691,7 +12711,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L135" t="n">
         <v>0.8631205685666311</v>
@@ -12701,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12741,7 +12761,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.008759</t>
         </is>
       </c>
     </row>
@@ -12764,10 +12784,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -12781,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -12825,17 +12845,17 @@
         <v>1.126176834106445</v>
       </c>
       <c r="W136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y136" t="n">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -12852,16 +12872,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -12875,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -12885,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12919,13 +12939,17 @@
         <v>0.908659040927887</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.5122486851695403</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>53</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -12948,10 +12972,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -12965,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -13015,7 +13039,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13038,10 +13062,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -13055,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -13105,7 +13129,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13122,16 +13146,16 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -13145,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -13155,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -13189,13 +13213,17 @@
         <v>0.9429649114608765</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>127</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13218,10 +13246,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -13235,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -13279,17 +13307,13 @@
         <v>1.110343933105469</v>
       </c>
       <c r="W141" t="n">
-        <v>1</v>
-      </c>
-      <c r="X141" t="n">
-        <v>0.4900998503939086</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13312,10 +13336,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -13329,7 +13353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L142" t="n">
         <v>0.5916727785823274</v>
@@ -13339,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -13379,7 +13403,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13402,10 +13426,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -13419,7 +13443,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="n">
         <v>0.5916727785823274</v>
@@ -13469,7 +13493,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13486,16 +13510,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -13509,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -13519,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13559,7 +13583,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.009760</t>
         </is>
       </c>
     </row>
@@ -13582,10 +13606,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -13599,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -13643,17 +13667,13 @@
         <v>1.136565923690796</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
-      </c>
-      <c r="X145" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -13670,16 +13690,16 @@
         <v>1</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -13693,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -13703,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13743,7 +13763,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -13766,10 +13786,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -13783,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -13833,7 +13853,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -13850,16 +13870,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -13873,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -13883,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13917,13 +13937,17 @@
         <v>0.9845503568649292</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.5005358046457723</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>109</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -13940,16 +13964,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -13963,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -13973,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -14013,7 +14037,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -14030,16 +14054,16 @@
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -14053,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -14063,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -14103,7 +14127,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -14120,16 +14144,16 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -14143,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -14153,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -14193,7 +14217,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -14216,10 +14240,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -14233,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -14283,7 +14307,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -14300,16 +14324,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -14323,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -14333,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -14373,7 +14397,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.010759</t>
         </is>
       </c>
     </row>
@@ -14396,10 +14420,10 @@
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -14413,7 +14437,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K154" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L154" t="n">
         <v>0.9852281360342515</v>
@@ -14423,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14463,7 +14487,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14486,10 +14510,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -14503,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -14547,17 +14571,13 @@
         <v>1.070793390274048</v>
       </c>
       <c r="W155" t="n">
-        <v>2</v>
-      </c>
-      <c r="X155" t="n">
-        <v>0.471259567615395</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14574,16 +14594,16 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -14597,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -14607,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14647,7 +14667,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14664,16 +14684,16 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -14687,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -14697,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14731,13 +14751,17 @@
         <v>1.04145348072052</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
-      </c>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>333</v>
+      </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14754,16 +14778,16 @@
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -14777,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -14787,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14821,13 +14845,17 @@
         <v>1.022715449333191</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
-      </c>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.4199949831636006</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>307</v>
+      </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14844,16 +14872,16 @@
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -14867,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -14877,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14917,7 +14945,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -14940,10 +14968,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -14957,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -15001,13 +15029,17 @@
         <v>1.063372135162354</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
-      </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0.4281848449949526</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>393</v>
+      </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -15030,10 +15062,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -15047,7 +15079,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L161" t="n">
         <v>0.5916727785823274</v>
@@ -15057,7 +15089,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -15097,7 +15129,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -15114,16 +15146,16 @@
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -15137,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -15147,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -15187,7 +15219,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.011758</t>
         </is>
       </c>
     </row>
@@ -15210,10 +15242,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -15227,7 +15259,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L163" t="n">
         <v>0.8631205685666311</v>
@@ -15277,7 +15309,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.012758</t>
         </is>
       </c>
     </row>
@@ -15300,10 +15332,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -15317,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -15367,7 +15399,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.012758</t>
         </is>
       </c>
     </row>
@@ -15390,10 +15422,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -15407,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -15451,17 +15483,13 @@
         <v>0.9607124328613281</v>
       </c>
       <c r="W165" t="n">
-        <v>2</v>
-      </c>
-      <c r="X165" t="n">
-        <v>0.5829919351087561</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.012758</t>
         </is>
       </c>
     </row>
@@ -15484,10 +15512,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -15501,7 +15529,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
         <v>0.5916727785823274</v>
@@ -15551,7 +15579,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.012758</t>
         </is>
       </c>
     </row>
@@ -15574,10 +15602,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -15591,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -15635,17 +15663,13 @@
         <v>0.9732462167739868</v>
       </c>
       <c r="W167" t="n">
-        <v>2</v>
-      </c>
-      <c r="X167" t="n">
-        <v>0.5852601757026697</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.012758</t>
         </is>
       </c>
     </row>
@@ -15668,10 +15692,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -15685,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -15729,17 +15753,17 @@
         <v>0.9473607540130615</v>
       </c>
       <c r="W168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X168" t="n">
-        <v>0.4764923982534325</v>
+        <v>0.5361410903109534</v>
       </c>
       <c r="Y168" t="n">
         <v>234</v>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.013759</t>
         </is>
       </c>
     </row>
@@ -15762,10 +15786,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -15779,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -15823,17 +15847,13 @@
         <v>0.988132119178772</v>
       </c>
       <c r="W169" t="n">
-        <v>1</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5818640804157564</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.013759</t>
         </is>
       </c>
     </row>
@@ -15850,16 +15870,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -15873,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -15883,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15917,13 +15937,17 @@
         <v>0.9159485101699829</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5939819704323989</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>142</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.013759</t>
         </is>
       </c>
     </row>
@@ -15946,10 +15970,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -15963,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -16007,17 +16031,13 @@
         <v>0.9889974594116211</v>
       </c>
       <c r="W171" t="n">
-        <v>2</v>
-      </c>
-      <c r="X171" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y171" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.044743</t>
+          <t>2025-10-19T23:55:01.014769</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -651,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.983758</t>
+          <t>2025-10-20T01:21:28.101839</t>
         </is>
       </c>
     </row>
@@ -741,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.983758</t>
+          <t>2025-10-20T01:21:28.107836</t>
         </is>
       </c>
     </row>
@@ -831,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.984758</t>
+          <t>2025-10-20T01:21:28.108836</t>
         </is>
       </c>
     </row>
@@ -925,7 +935,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.984758</t>
+          <t>2025-10-20T01:21:28.108836</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1025,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.984758</t>
+          <t>2025-10-20T01:21:28.108836</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1115,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.984758</t>
+          <t>2025-10-20T01:21:28.108836</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1205,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.985758</t>
+          <t>2025-10-20T01:21:28.109838</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1295,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.985758</t>
+          <t>2025-10-20T01:21:28.110838</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1385,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.985758</t>
+          <t>2025-10-20T01:21:28.110838</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1475,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.985758</t>
+          <t>2025-10-20T01:21:28.111844</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1569,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.985758</t>
+          <t>2025-10-20T01:21:28.111844</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1659,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.986757</t>
+          <t>2025-10-20T01:21:28.111844</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.986757</t>
+          <t>2025-10-20T01:21:28.112838</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.986757</t>
+          <t>2025-10-20T01:21:28.112838</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1933,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.986757</t>
+          <t>2025-10-20T01:21:28.112838</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2023,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.987757</t>
+          <t>2025-10-20T01:21:28.114841</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2113,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.987757</t>
+          <t>2025-10-20T01:21:28.115840</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2203,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.987757</t>
+          <t>2025-10-20T01:21:28.115840</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2293,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.116839</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2387,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.116839</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2481,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.116839</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2571,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.117837</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2661,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.117837</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2751,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.117837</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2845,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.117837</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2935,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.988759</t>
+          <t>2025-10-20T01:21:28.117837</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3025,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.121858</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3115,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.121858</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3209,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.122840</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3303,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.122840</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3393,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.122840</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3483,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.123837</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3573,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.124836</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3663,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.989760</t>
+          <t>2025-10-20T01:21:28.125838</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3753,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.126836</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3843,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.126836</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3937,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.126836</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4031,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.126836</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4121,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.127838</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4211,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.127838</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4301,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.127838</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4391,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.990757</t>
+          <t>2025-10-20T01:21:28.127838</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4485,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.128839</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4575,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.128839</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4665,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.128839</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4755,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.128839</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4845,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.128839</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4939,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.129840</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5029,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.129840</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5123,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.991756</t>
+          <t>2025-10-20T01:21:28.131832</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5217,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.131832</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5307,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.132831</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5397,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.132831</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5487,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.132831</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5577,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.133827</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5671,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.133827</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5761,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.133827</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5851,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.133827</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5941,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.133827</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6031,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.992756</t>
+          <t>2025-10-20T01:21:28.134827</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6121,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.134827</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6215,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.134827</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6309,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.134827</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6403,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.137840</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6497,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.137840</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6587,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.138827</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6681,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.138827</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6775,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.993757</t>
+          <t>2025-10-20T01:21:28.138827</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6865,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.139831</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6955,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.139831</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7045,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.139831</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7135,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.139831</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7225,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.139831</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7315,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.140826</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7409,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.140826</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7499,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.140826</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7589,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.994756</t>
+          <t>2025-10-20T01:21:28.140826</t>
         </is>
       </c>
     </row>
@@ -7673,7 +7683,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7773,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7867,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7957,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -8037,7 +8047,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -8131,7 +8141,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.141827</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8231,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8311,7 +8321,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.995757</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8411,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.997759</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8501,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.997759</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8591,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.997759</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8681,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.998768</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8775,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.998768</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8865,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.998768</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8955,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.999755</t>
+          <t>2025-10-20T01:21:28.142826</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9045,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.999755</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.999755</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9233,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.999755</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9323,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:00.999755</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.000753</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.000753</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9583,7 +9593,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.000753</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9683,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.000753</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9763,7 +9773,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.000753</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9863,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.001754</t>
+          <t>2025-10-20T01:21:28.143824</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9953,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.001754</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10043,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.001754</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10133,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.001754</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10217,7 +10227,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.002753</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10317,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.002753</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10411,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.002753</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10501,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.002753</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10591,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.003754</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10681,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.003754</t>
+          <t>2025-10-20T01:21:28.144824</t>
         </is>
       </c>
     </row>
@@ -10761,7 +10771,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.003754</t>
+          <t>2025-10-20T01:21:28.145966</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10865,7 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.003754</t>
+          <t>2025-10-20T01:21:28.145966</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10955,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.003754</t>
+          <t>2025-10-20T01:21:28.146497</t>
         </is>
       </c>
     </row>
@@ -11035,7 +11045,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.004763</t>
+          <t>2025-10-20T01:21:28.146497</t>
         </is>
       </c>
     </row>
@@ -11125,7 +11135,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.004763</t>
+          <t>2025-10-20T01:21:28.146497</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11229,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.004763</t>
+          <t>2025-10-20T01:21:28.146497</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11319,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.004763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11413,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.005763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11503,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.005763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11583,7 +11593,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.005763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11683,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.005763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11773,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.005763</t>
+          <t>2025-10-20T01:21:28.147496</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11863,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.006766</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11953,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.006766</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12033,7 +12043,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.006766</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12127,7 +12137,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.006766</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.007758</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.007758</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12407,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.008759</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12497,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.008759</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12591,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.008759</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12681,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.008759</t>
+          <t>2025-10-20T01:21:28.148495</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12771,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.008759</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12865,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12959,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13039,7 +13049,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13129,7 +13139,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13223,7 +13233,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13323,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13413,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.149494</t>
         </is>
       </c>
     </row>
@@ -13493,7 +13503,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.150494</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13593,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.009760</t>
+          <t>2025-10-20T01:21:28.150494</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13683,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.150494</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13773,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.150494</t>
         </is>
       </c>
     </row>
@@ -13853,7 +13863,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.150494</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13957,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14037,7 +14047,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14127,7 +14137,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14217,7 +14227,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14307,7 +14317,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14397,7 +14407,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.010759</t>
+          <t>2025-10-20T01:21:28.151492</t>
         </is>
       </c>
     </row>
@@ -14487,7 +14497,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.152494</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14587,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.152494</t>
         </is>
       </c>
     </row>
@@ -14667,7 +14677,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.153513</t>
         </is>
       </c>
     </row>
@@ -14761,7 +14771,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.153513</t>
         </is>
       </c>
     </row>
@@ -14855,7 +14865,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14955,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15049,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15139,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15229,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.011758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15319,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.012758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15409,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.012758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15489,7 +15499,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.012758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15589,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.012758</t>
+          <t>2025-10-20T01:21:28.154493</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15679,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.012758</t>
+          <t>2025-10-20T01:21:28.155492</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15773,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.013759</t>
+          <t>2025-10-20T01:21:28.155492</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15863,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.013759</t>
+          <t>2025-10-20T01:21:28.155492</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15957,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.013759</t>
+          <t>2025-10-20T01:21:28.155492</t>
         </is>
       </c>
     </row>
@@ -16037,11 +16047,16 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:01.014769</t>
+          <t>2025-10-20T01:21:28.155492</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z171">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.101839</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.107836</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.108836</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,13 @@
         <v>1.557524442672729</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.108836</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1021,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.108836</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1111,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.108836</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1201,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.109838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1291,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.110838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1381,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.110838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1471,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.111844</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1562,14 +1558,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5818640804157564</v>
+        <v>0.4068777042230437</v>
       </c>
       <c r="Y12" t="n">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.111844</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1653,13 +1649,17 @@
         <v>1.533305406570435</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4031932504440429</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>95</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.111844</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.112838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.112838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -1923,17 +1923,13 @@
         <v>0.8958388566970825</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5424541179848884</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.112838</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.114841</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.115840</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.115840</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.116839</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2373,17 @@
         <v>0.883944034576416</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4090454577821077</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y21" t="n">
         <v>65</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.116839</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2471,17 +2467,17 @@
         <v>1.118386507034302</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4330533878126005</v>
       </c>
       <c r="Y22" t="n">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.116839</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.117837</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.117837</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.117837</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2835,17 +2831,13 @@
         <v>1.188596963882446</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5884403511369705</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.117837</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2927,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.117837</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3017,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.121858</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3107,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.121858</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -3202,14 +3194,14 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4608484485919075</v>
+        <v>0.5234963019255433</v>
       </c>
       <c r="Y30" t="n">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.122840</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -3296,14 +3288,14 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4863890037284231</v>
+        <v>0.4014132610439435</v>
       </c>
       <c r="Y31" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.122840</t>
+          <t>2025-10-23T11:29:10.467747</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3385,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.122840</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3475,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.123837</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3565,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.124836</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3655,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.125838</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3745,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.126836</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3835,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.126836</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3919,17 @@
         <v>0.9864968061447144</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.5607344153798228</v>
       </c>
       <c r="Y38" t="n">
         <v>222</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.126836</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4024,14 +4016,14 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.4457596330983245</v>
       </c>
       <c r="Y39" t="n">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.126836</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4113,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.127838</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4203,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.127838</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4293,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.127838</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4383,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.127838</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4478,14 +4470,14 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.5211919949562023</v>
       </c>
       <c r="Y44" t="n">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.128839</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4567,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.128839</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4659,13 +4651,17 @@
         <v>1.056297183036804</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.4944429850323899</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>408</v>
+      </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.128839</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4751,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.128839</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4841,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.128839</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -4929,17 +4925,17 @@
         <v>0.8617891073226929</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.4001557531682029</v>
       </c>
       <c r="Y49" t="n">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.129840</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5025,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.129840</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5116,14 +5112,14 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y51" t="n">
         <v>300</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.131832</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5210,14 +5206,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.5829919351087561</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.131832</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5301,13 +5297,17 @@
         <v>0.9725282788276672</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.487867300373154</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>199</v>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.132831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.132831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.132831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.133827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5664,14 +5664,14 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4790300472003629</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y57" t="n">
-        <v>419</v>
+        <v>4</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.133827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5755,13 +5755,17 @@
         <v>1.128668308258057</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.4591267371675428</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>421</v>
+      </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.133827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.133827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.133827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.134827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.134827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6208,14 +6212,14 @@
         <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.4741636504396533</v>
       </c>
       <c r="Y63" t="n">
         <v>281</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.134827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6302,14 +6306,14 @@
         <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5223705789444759</v>
+        <v>0.5049549320516779</v>
       </c>
       <c r="Y64" t="n">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.134827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6396,14 +6400,14 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4623422152178822</v>
+        <v>0.5325044568707964</v>
       </c>
       <c r="Y65" t="n">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.137840</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6487,17 +6491,13 @@
         <v>0.9712306261062622</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.4675230342807256</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.137840</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6581,13 +6581,17 @@
         <v>0.9362820386886597</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.4493752125677202</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>68</v>
+      </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.138827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6671,17 +6675,17 @@
         <v>0.9786210060119629</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X68" t="n">
-        <v>0.4895566329146183</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y68" t="n">
         <v>54</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.138827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6765,17 +6769,17 @@
         <v>1.048776626586914</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4690142496053366</v>
+        <v>0.5093420558686559</v>
       </c>
       <c r="Y69" t="n">
         <v>144</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.138827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.139831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.139831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.139831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.139831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7225,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.139831</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.140826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7402,14 +7406,14 @@
         <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y76" t="n">
         <v>286</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.140826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.140826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.140826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7673,17 +7677,17 @@
         <v>1.029910564422607</v>
       </c>
       <c r="W79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X79" t="n">
-        <v>0.450783082786869</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y79" t="n">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7860,14 +7864,14 @@
         <v>2</v>
       </c>
       <c r="X81" t="n">
-        <v>0.4628711962152653</v>
+        <v>0.5791527191347039</v>
       </c>
       <c r="Y81" t="n">
         <v>61</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8131,17 +8135,13 @@
         <v>1.114853382110596</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
-      </c>
-      <c r="X84" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.141827</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8765,17 +8765,13 @@
         <v>1.009974956512451</v>
       </c>
       <c r="W91" t="n">
-        <v>1</v>
-      </c>
-      <c r="X91" t="n">
-        <v>0.4739308912122809</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8861,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8951,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.142826</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9041,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9129,17 +9125,17 @@
         <v>1.058114528656006</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X95" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4846802961412739</v>
       </c>
       <c r="Y95" t="n">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9223,17 +9219,17 @@
         <v>1.053725719451904</v>
       </c>
       <c r="W96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4898901348276407</v>
       </c>
       <c r="Y96" t="n">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9317,13 +9313,17 @@
         <v>0.9596054553985596</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.4130103185970559</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>102</v>
+      </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9587,13 +9587,17 @@
         <v>0.9415315389633179</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.4918497783931735</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>288</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9683,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9863,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.143824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10127,13 +10131,17 @@
         <v>0.9716554284095764</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.453356202855057</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>322</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10220,14 +10228,14 @@
         <v>1</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y107" t="n">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10401,17 +10409,17 @@
         <v>0.9544205665588379</v>
       </c>
       <c r="W109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X109" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.5785117996979956</v>
       </c>
       <c r="Y109" t="n">
         <v>196</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10585,13 +10593,17 @@
         <v>1.022408485412598</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
-      </c>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.5760935678030515</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>435</v>
+      </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10693,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.144824</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10783,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.145966</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10855,17 +10867,13 @@
         <v>0.9140036106109619</v>
       </c>
       <c r="W114" t="n">
-        <v>1</v>
-      </c>
-      <c r="X114" t="n">
-        <v>0.5202230023486417</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.145966</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10963,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.146497</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11053,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.146497</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11129,13 +11137,17 @@
         <v>1.007697701454163</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
-      </c>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.5931264066149118</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>384</v>
+      </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.146497</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11219,17 +11231,13 @@
         <v>1.067566156387329</v>
       </c>
       <c r="W118" t="n">
-        <v>1</v>
-      </c>
-      <c r="X118" t="n">
-        <v>0.4461787651244298</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.146497</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11319,7 +11327,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11403,17 +11411,13 @@
         <v>0.9843953847885132</v>
       </c>
       <c r="W120" t="n">
-        <v>2</v>
-      </c>
-      <c r="X120" t="n">
-        <v>0.4636006949943728</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.147496</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11863,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.483370</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.495096</t>
         </is>
       </c>
     </row>
@@ -12127,17 +12131,13 @@
         <v>0.9688973426818848</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.5815132947852186</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.495096</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.496103</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.496103</t>
         </is>
       </c>
     </row>
@@ -12401,13 +12401,17 @@
         <v>1.000256776809692</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5182595575415454</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>400</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.496103</t>
         </is>
       </c>
     </row>
@@ -12491,13 +12495,17 @@
         <v>1.094073534011841</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
-      </c>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.4285733635843882</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>288</v>
+      </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.496103</t>
         </is>
       </c>
     </row>
@@ -12581,17 +12589,13 @@
         <v>1.090240955352783</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.5995480970097884</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.496103</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12685,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.148495</t>
+          <t>2025-10-23T11:29:10.497094</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12775,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.497094</t>
         </is>
       </c>
     </row>
@@ -12855,17 +12859,17 @@
         <v>1.126176834106445</v>
       </c>
       <c r="W136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y136" t="n">
         <v>351</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.497094</t>
         </is>
       </c>
     </row>
@@ -12949,17 +12953,13 @@
         <v>0.908659040927887</v>
       </c>
       <c r="W137" t="n">
-        <v>1</v>
-      </c>
-      <c r="X137" t="n">
-        <v>0.5122486851695403</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.497094</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.498092</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.498092</t>
         </is>
       </c>
     </row>
@@ -13223,17 +13223,13 @@
         <v>0.9429649114608765</v>
       </c>
       <c r="W140" t="n">
-        <v>1</v>
-      </c>
-      <c r="X140" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.498092</t>
         </is>
       </c>
     </row>
@@ -13317,13 +13313,17 @@
         <v>1.110343933105469</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
-      </c>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0.5028468876827223</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>368</v>
+      </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.498092</t>
         </is>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.149494</t>
+          <t>2025-10-23T11:29:10.498092</t>
         </is>
       </c>
     </row>
@@ -13503,7 +13503,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.150494</t>
+          <t>2025-10-23T11:29:10.499092</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.150494</t>
+          <t>2025-10-23T11:29:10.499092</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.150494</t>
+          <t>2025-10-23T11:29:10.499092</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.150494</t>
+          <t>2025-10-23T11:29:10.500158</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.150494</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -13950,14 +13950,14 @@
         <v>1</v>
       </c>
       <c r="X148" t="n">
-        <v>0.5005358046457723</v>
+        <v>0.4129784494217963</v>
       </c>
       <c r="Y148" t="n">
         <v>109</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14221,13 +14221,17 @@
         <v>0.9943618774414062</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
-      </c>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.5966846281789686</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>256</v>
+      </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14317,7 +14321,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14407,7 +14411,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.151492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14497,7 +14501,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.152494</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14591,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.152494</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14681,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.153513</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14761,17 +14765,13 @@
         <v>1.04145348072052</v>
       </c>
       <c r="W157" t="n">
-        <v>1</v>
-      </c>
-      <c r="X157" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.153513</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14855,17 +14855,13 @@
         <v>1.022715449333191</v>
       </c>
       <c r="W158" t="n">
-        <v>1</v>
-      </c>
-      <c r="X158" t="n">
-        <v>0.4199949831636006</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -14949,13 +14945,17 @@
         <v>1.009408950805664</v>
       </c>
       <c r="W159" t="n">
-        <v>0</v>
-      </c>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0.4484319876554852</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>106</v>
+      </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15042,14 +15042,14 @@
         <v>1</v>
       </c>
       <c r="X160" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4551998364045087</v>
       </c>
       <c r="Y160" t="n">
         <v>393</v>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15499,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15589,7 +15589,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.154493</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15673,13 +15673,17 @@
         <v>0.9732462167739868</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.5614880310328125</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>338</v>
+      </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.155492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15766,14 +15770,14 @@
         <v>2</v>
       </c>
       <c r="X168" t="n">
-        <v>0.5361410903109534</v>
+        <v>0.4479123781333945</v>
       </c>
       <c r="Y168" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.155492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15857,13 +15861,17 @@
         <v>0.988132119178772</v>
       </c>
       <c r="W169" t="n">
-        <v>0</v>
-      </c>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0.4822074026636463</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>222</v>
+      </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.155492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -15947,17 +15955,17 @@
         <v>0.9159485101699829</v>
       </c>
       <c r="W170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X170" t="n">
-        <v>0.5939819704323989</v>
+        <v>0.4601756619633539</v>
       </c>
       <c r="Y170" t="n">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.155492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>
@@ -16047,7 +16055,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:28.155492</t>
+          <t>2025-10-23T11:29:10.500330</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -661,7 +661,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.075381</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.079899</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080104</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080104</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080104</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080104</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.467747</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.080616</t>
         </is>
       </c>
     </row>
@@ -11327,7 +11327,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11507,7 +11507,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11777,7 +11777,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.483370</t>
+          <t>2025-10-23T12:45:12.096259</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.495096</t>
+          <t>2025-10-23T12:45:12.099316</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.495096</t>
+          <t>2025-10-23T12:45:12.099316</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.496103</t>
+          <t>2025-10-23T12:45:12.099316</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.496103</t>
+          <t>2025-10-23T12:45:12.099316</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.496103</t>
+          <t>2025-10-23T12:45:12.100316</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.496103</t>
+          <t>2025-10-23T12:45:12.100316</t>
         </is>
       </c>
     </row>
@@ -12595,7 +12595,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.496103</t>
+          <t>2025-10-23T12:45:12.100316</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.497094</t>
+          <t>2025-10-23T12:45:12.100316</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.497094</t>
+          <t>2025-10-23T12:45:12.100316</t>
         </is>
       </c>
     </row>
@@ -12869,7 +12869,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.497094</t>
+          <t>2025-10-23T12:45:12.101315</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.497094</t>
+          <t>2025-10-23T12:45:12.101315</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.498092</t>
+          <t>2025-10-23T12:45:12.101315</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.498092</t>
+          <t>2025-10-23T12:45:12.101315</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.498092</t>
+          <t>2025-10-23T12:45:12.101315</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.498092</t>
+          <t>2025-10-23T12:45:12.102316</t>
         </is>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.498092</t>
+          <t>2025-10-23T12:45:12.102316</t>
         </is>
       </c>
     </row>
@@ -13503,7 +13503,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.499092</t>
+          <t>2025-10-23T12:45:12.102316</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.499092</t>
+          <t>2025-10-23T12:45:12.102316</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.499092</t>
+          <t>2025-10-23T12:45:12.102316</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500158</t>
+          <t>2025-10-23T12:45:12.103312</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.103312</t>
         </is>
       </c>
     </row>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.103312</t>
         </is>
       </c>
     </row>
@@ -14047,7 +14047,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.103312</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.103312</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.104309</t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.104309</t>
         </is>
       </c>
     </row>
@@ -14411,7 +14411,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.104309</t>
         </is>
       </c>
     </row>
@@ -14501,7 +14501,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.104309</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.104309</t>
         </is>
       </c>
     </row>
@@ -14681,7 +14681,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.105877</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.105877</t>
         </is>
       </c>
     </row>
@@ -14861,7 +14861,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.106882</t>
         </is>
       </c>
     </row>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.106882</t>
         </is>
       </c>
     </row>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.106882</t>
         </is>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.107879</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.108579</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.108658</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.108658</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15499,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.109171</t>
         </is>
       </c>
     </row>
@@ -15589,7 +15589,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.109171</t>
         </is>
       </c>
     </row>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.109171</t>
         </is>
       </c>
     </row>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.109171</t>
         </is>
       </c>
     </row>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.110204</t>
         </is>
       </c>
     </row>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.110204</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:10.500330</t>
+          <t>2025-10-23T12:45:12.111187</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.323151401627564</v>
+        <v>2.323151469230652</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.559538</t>
         </is>
       </c>
     </row>
@@ -738,16 +738,20 @@
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>4.500174327939385</v>
+        <v>4.500174522399902</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5116586907214196</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>340</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.559538</t>
         </is>
       </c>
     </row>
@@ -826,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>3.126460443146453</v>
+        <v>3.126460552215576</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -839,7 +843,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.559538</t>
         </is>
       </c>
     </row>
@@ -918,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.511184357571431</v>
+        <v>2.511184453964233</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -927,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.559538</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.253158425220415</v>
+        <v>2.253158450126648</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1015,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.560535</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>3.315399116348081</v>
+        <v>3.315399169921875</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1107,7 +1111,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.560535</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>3.545329792329087</v>
+        <v>3.545329809188843</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1195,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.560535</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>3.772553083916955</v>
+        <v>3.772553086280823</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.560535</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>3.534826959033949</v>
+        <v>3.534826993942261</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1379,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.560535</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.151044391822087</v>
+        <v>2.151044368743896</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1463,7 +1467,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.561535</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>3.052875113784808</v>
+        <v>3.05287504196167</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1551,7 +1555,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.561535</t>
         </is>
       </c>
     </row>
@@ -1630,20 +1634,20 @@
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>4.132063165554767</v>
+        <v>4.132063150405884</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5580351081062411</v>
+        <v>0.4868788731020857</v>
       </c>
       <c r="Y13" t="n">
         <v>123</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.561535</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>2.705330762954408</v>
+        <v>2.705330729484558</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.561535</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>3.390245954650309</v>
+        <v>3.390245914459229</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1823,7 +1827,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.561535</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.54464621993829</v>
+        <v>2.544646143913269</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1911,7 +1915,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.033620474004841</v>
+        <v>2.033620476722717</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1999,7 +2003,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -2078,16 +2082,20 @@
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>3.504662187322734</v>
+        <v>3.504662156105042</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>297</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2174,20 @@
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.831036899502831</v>
+        <v>1.831036925315857</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>37</v>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.099192007671792</v>
+        <v>2.099192023277283</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2263,7 +2275,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.351836798244755</v>
+        <v>2.351836800575256</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2351,7 +2363,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.562535</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>5.749684286910229</v>
+        <v>5.74968433380127</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
@@ -2443,7 +2455,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.595624251908877</v>
+        <v>2.595624208450317</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2531,7 +2543,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.528039935472906</v>
+        <v>2.528039932250977</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2619,7 +2631,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>4.011477397568915</v>
+        <v>4.011477470397949</v>
       </c>
       <c r="W25" t="n">
         <v>2</v>
@@ -2711,7 +2723,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2790,16 +2802,20 @@
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.539741555712461</v>
+        <v>2.539741516113281</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5964336686658871</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>192</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.444499676349356</v>
+        <v>2.444499731063843</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2887,7 +2903,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.563537</t>
         </is>
       </c>
     </row>
@@ -2966,20 +2982,20 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.277989634844774</v>
+        <v>2.277989625930786</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y28" t="n">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3074,7 @@
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>4.065547880813329</v>
+        <v>4.065547943115234</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3067,7 +3083,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>3.254427733097125</v>
+        <v>3.254427671432495</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3155,7 +3171,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.134042758626296</v>
+        <v>2.134042739868164</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3243,7 +3259,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3322,20 +3338,20 @@
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>4.535455524437541</v>
+        <v>4.535455465316772</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4608484485919075</v>
+        <v>0.5153807769252718</v>
       </c>
       <c r="Y32" t="n">
         <v>64</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>3.10194941922646</v>
+        <v>3.101949334144592</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
@@ -3427,7 +3443,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>4.555658688209848</v>
+        <v>4.555658578872681</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -3519,7 +3535,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.564535</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>3.21097040483818</v>
+        <v>3.210970401763916</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3607,7 +3623,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>2.417815356365607</v>
+        <v>2.417815327644348</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3695,7 +3711,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>3.114726113757338</v>
+        <v>3.114726185798645</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3783,7 +3799,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>3.975622946237259</v>
+        <v>3.97562301158905</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3871,7 +3887,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -3950,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>3.97594437052463</v>
+        <v>3.97594428062439</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -3963,7 +3979,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>3.323513778719904</v>
+        <v>3.323513865470886</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
@@ -4055,7 +4071,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.565537</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>4.394184035447291</v>
+        <v>4.394183874130249</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -4147,7 +4163,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.568630</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4242,7 @@
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>4.532220691234274</v>
+        <v>4.532220602035522</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4235,7 +4251,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.569619</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.878294755397982</v>
+        <v>1.878294706344604</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4323,7 +4339,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.570059</t>
         </is>
       </c>
     </row>
@@ -4402,16 +4418,20 @@
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>3.245925536709905</v>
+        <v>3.245925545692444</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.4377414216682759</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>256</v>
+      </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.570794</t>
         </is>
       </c>
     </row>
@@ -4490,16 +4510,20 @@
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>3.558817197719483</v>
+        <v>3.558817148208618</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.501762815367752</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>410</v>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.570794</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>3.277390709249346</v>
+        <v>3.277390718460083</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -4591,7 +4615,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.570794</t>
         </is>
       </c>
     </row>
@@ -4670,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>2.769762116442291</v>
+        <v>2.76976203918457</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4679,7 +4703,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571346</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4782,7 @@
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>3.999550371558645</v>
+        <v>3.999550342559814</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4767,7 +4791,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571346</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>2.72679237111236</v>
+        <v>2.726792335510254</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -4859,7 +4883,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571346</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>3.958378937693867</v>
+        <v>3.958379030227661</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
@@ -4951,7 +4975,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571894</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>4.853661492705262</v>
+        <v>4.85366153717041</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -5039,7 +5063,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571894</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>2.743127697341979</v>
+        <v>2.743127703666687</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5127,7 +5151,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.571894</t>
         </is>
       </c>
     </row>
@@ -5206,16 +5230,20 @@
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>3.344929232038876</v>
+        <v>3.344929218292236</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>260</v>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.572438</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>5.430582265339618</v>
+        <v>5.430582284927368</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5303,7 +5331,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.572438</t>
         </is>
       </c>
     </row>
@@ -5382,20 +5410,20 @@
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>3.228895496101596</v>
+        <v>3.228895545005798</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y55" t="n">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.572965</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>4.378511185560685</v>
+        <v>4.378511190414429</v>
       </c>
       <c r="W56" t="n">
         <v>1</v>
@@ -5487,7 +5515,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.572982</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>3.313979761230104</v>
+        <v>3.313979744911194</v>
       </c>
       <c r="W57" t="n">
         <v>1</v>
@@ -5579,7 +5607,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.572982</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>3.243876389596648</v>
+        <v>3.243876338005066</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5667,7 +5695,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.573525</t>
         </is>
       </c>
     </row>
@@ -5746,20 +5774,20 @@
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>2.225681115937339</v>
+        <v>2.225681185722351</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4939889027981886</v>
       </c>
       <c r="Y59" t="n">
-        <v>344</v>
+        <v>27</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.573525</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>2.475437873130709</v>
+        <v>2.475437879562378</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5847,7 +5875,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.573525</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5954,7 @@
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>2.984402476164469</v>
+        <v>2.984402537345886</v>
       </c>
       <c r="W61" t="n">
         <v>1</v>
@@ -5939,7 +5967,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.574236</t>
         </is>
       </c>
     </row>
@@ -6018,16 +6046,20 @@
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>4.047142212301427</v>
+        <v>4.047142267227173</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5230014453398339</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>366</v>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.574236</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6138,7 @@
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>2.57909014079331</v>
+        <v>2.579090118408203</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -6115,7 +6147,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.574761</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>2.643797743678438</v>
+        <v>2.643797755241394</v>
       </c>
       <c r="W64" t="n">
         <v>1</v>
@@ -6207,7 +6239,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.574761</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6318,7 @@
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>3.494843307786692</v>
+        <v>3.494843244552612</v>
       </c>
       <c r="W65" t="n">
         <v>1</v>
@@ -6299,7 +6331,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.574761</t>
         </is>
       </c>
     </row>
@@ -6378,16 +6410,20 @@
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.884379796422611</v>
+        <v>2.884379863739014</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.4515883255430311</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>115</v>
+      </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.575765</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>3.080162915024962</v>
+        <v>3.080162882804871</v>
       </c>
       <c r="W67" t="n">
         <v>1</v>
@@ -6479,7 +6515,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.575765</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6594,7 @@
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>3.622488707396134</v>
+        <v>3.622488617897034</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
@@ -6567,7 +6603,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.575765</t>
         </is>
       </c>
     </row>
@@ -6646,16 +6682,20 @@
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>3.657334216732003</v>
+        <v>3.657334208488464</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>368</v>
+      </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.575765</t>
         </is>
       </c>
     </row>
@@ -6734,16 +6774,20 @@
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>2.752405465598026</v>
+        <v>2.752405524253845</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.5860033669621664</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>264</v>
+      </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.575765</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6866,7 @@
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>3.688186871091111</v>
+        <v>3.688186883926392</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6831,7 +6875,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.576762</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6954,7 @@
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>2.345236658080108</v>
+        <v>2.345236659049988</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6919,7 +6963,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.576762</t>
         </is>
       </c>
     </row>
@@ -6998,7 +7042,7 @@
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>4.604453154524934</v>
+        <v>4.604453086853027</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -7007,7 +7051,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.576762</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>3.733564152467141</v>
+        <v>3.733564138412476</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -7095,7 +7139,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.576762</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7218,7 @@
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>3.433280745194232</v>
+        <v>3.43328070640564</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7183,7 +7227,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7262,16 +7306,20 @@
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>3.177950651886884</v>
+        <v>3.177950620651245</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4484319876554852</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>53</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7398,7 @@
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>3.931742272433445</v>
+        <v>3.931742310523987</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7359,7 +7407,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7486,7 @@
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>3.477132177016973</v>
+        <v>3.477132201194763</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7447,7 +7495,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>2.735590122032455</v>
+        <v>2.735590100288391</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -7535,7 +7583,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7614,16 +7662,20 @@
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>2.804868187373809</v>
+        <v>2.804868221282959</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.4033175657855713</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>400</v>
+      </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.577764</t>
         </is>
       </c>
     </row>
@@ -7702,16 +7754,20 @@
         <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>4.522676765005002</v>
+        <v>4.522676944732666</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.4150692512012257</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>149</v>
+      </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.578760</t>
         </is>
       </c>
     </row>
@@ -7790,16 +7846,20 @@
         <v>5</v>
       </c>
       <c r="V82" t="n">
-        <v>3.74486256630362</v>
+        <v>3.744862675666809</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.5144008398418366</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>401</v>
+      </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.578760</t>
         </is>
       </c>
     </row>
@@ -7878,20 +7938,20 @@
         <v>5</v>
       </c>
       <c r="V83" t="n">
-        <v>4.792221402044241</v>
+        <v>4.792221546173096</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y83" t="n">
         <v>284</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.578760</t>
         </is>
       </c>
     </row>
@@ -7970,7 +8030,7 @@
         <v>5</v>
       </c>
       <c r="V84" t="n">
-        <v>5.301548418460469</v>
+        <v>5.301548480987549</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -7979,7 +8039,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.578760</t>
         </is>
       </c>
     </row>
@@ -8058,16 +8118,20 @@
         <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>3.448766376011559</v>
+        <v>3.448766350746155</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.4087207543508868</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>207</v>
+      </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.579762</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>2.137586449816969</v>
+        <v>2.13758647441864</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8155,7 +8219,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.579762</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8298,7 @@
         <v>5</v>
       </c>
       <c r="V87" t="n">
-        <v>2.938164437025114</v>
+        <v>2.938164353370667</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8243,7 +8307,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.579762</t>
         </is>
       </c>
     </row>
@@ -8322,7 +8386,7 @@
         <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>2.488557382948724</v>
+        <v>2.4885573387146</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8331,7 +8395,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.579762</t>
         </is>
       </c>
     </row>
@@ -8410,16 +8474,20 @@
         <v>5</v>
       </c>
       <c r="V89" t="n">
-        <v>2.360934410728174</v>
+        <v>2.360934376716614</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.4697331974583459</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>6</v>
+      </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.579762</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8566,7 @@
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>3.169542665539687</v>
+        <v>3.169542670249939</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -8507,7 +8575,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.580761</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8654,7 @@
         <v>5</v>
       </c>
       <c r="V91" t="n">
-        <v>2.271404702741328</v>
+        <v>2.27140474319458</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8595,7 +8663,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.580761</t>
         </is>
       </c>
     </row>
@@ -8674,16 +8742,20 @@
         <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>5.433925856127241</v>
+        <v>5.433925867080688</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
-      </c>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.5632863746438768</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>162</v>
+      </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.580761</t>
         </is>
       </c>
     </row>
@@ -8762,20 +8834,20 @@
         <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>3.704090912417199</v>
+        <v>3.70409095287323</v>
       </c>
       <c r="W93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5881046528979208</v>
       </c>
       <c r="Y93" t="n">
-        <v>388</v>
+        <v>9</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.580761</t>
         </is>
       </c>
     </row>
@@ -8854,7 +8926,7 @@
         <v>5</v>
       </c>
       <c r="V94" t="n">
-        <v>3.069146664001835</v>
+        <v>3.069146633148193</v>
       </c>
       <c r="W94" t="n">
         <v>2</v>
@@ -8867,7 +8939,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.581761</t>
         </is>
       </c>
     </row>
@@ -8946,7 +9018,7 @@
         <v>5</v>
       </c>
       <c r="V95" t="n">
-        <v>2.372834732362227</v>
+        <v>2.372834801673889</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8955,7 +9027,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.581761</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9106,7 @@
         <v>5</v>
       </c>
       <c r="V96" t="n">
-        <v>4.172753467841237</v>
+        <v>4.17275333404541</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -9043,7 +9115,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.581761</t>
         </is>
       </c>
     </row>
@@ -9122,16 +9194,20 @@
         <v>5</v>
       </c>
       <c r="V97" t="n">
-        <v>2.4747855075748</v>
+        <v>2.474785566329956</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.4323257428189228</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>27</v>
+      </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.581761</t>
         </is>
       </c>
     </row>
@@ -9210,7 +9286,7 @@
         <v>5</v>
       </c>
       <c r="V98" t="n">
-        <v>3.118776870087419</v>
+        <v>3.118776917457581</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9219,7 +9295,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.582763</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9374,7 @@
         <v>5</v>
       </c>
       <c r="V99" t="n">
-        <v>3.675526696158707</v>
+        <v>3.67552661895752</v>
       </c>
       <c r="W99" t="n">
         <v>1</v>
@@ -9311,7 +9387,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.582763</t>
         </is>
       </c>
     </row>
@@ -9390,7 +9466,7 @@
         <v>5</v>
       </c>
       <c r="V100" t="n">
-        <v>2.449972704056216</v>
+        <v>2.449972748756409</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -9399,7 +9475,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.582763</t>
         </is>
       </c>
     </row>
@@ -9478,7 +9554,7 @@
         <v>5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.652575188066296</v>
+        <v>2.652575254440308</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9487,7 +9563,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.583554</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9642,7 @@
         <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>2.740750775498175</v>
+        <v>2.740750789642334</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9575,7 +9651,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.583554</t>
         </is>
       </c>
     </row>
@@ -9654,16 +9730,20 @@
         <v>5</v>
       </c>
       <c r="V103" t="n">
-        <v>6.145030454996711</v>
+        <v>6.145030498504639</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
-      </c>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.444853861892112</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>215</v>
+      </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9822,7 @@
         <v>5</v>
       </c>
       <c r="V104" t="n">
-        <v>2.775544754865121</v>
+        <v>2.775544762611389</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9751,7 +9831,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.973453</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -9830,20 +9910,20 @@
         <v>5</v>
       </c>
       <c r="V105" t="n">
-        <v>3.616112035028753</v>
+        <v>3.616111993789673</v>
       </c>
       <c r="W105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.5383790395385386</v>
       </c>
       <c r="Y105" t="n">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -9922,7 +10002,7 @@
         <v>5</v>
       </c>
       <c r="V106" t="n">
-        <v>5.550446556293357</v>
+        <v>5.550446510314941</v>
       </c>
       <c r="W106" t="n">
         <v>1</v>
@@ -9935,7 +10015,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -10014,7 +10094,7 @@
         <v>5</v>
       </c>
       <c r="V107" t="n">
-        <v>4.215806339469498</v>
+        <v>4.215806484222412</v>
       </c>
       <c r="W107" t="n">
         <v>1</v>
@@ -10027,7 +10107,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -10106,7 +10186,7 @@
         <v>5</v>
       </c>
       <c r="V108" t="n">
-        <v>3.215493102132161</v>
+        <v>3.215493083000183</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -10115,7 +10195,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.584087</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10274,7 @@
         <v>5</v>
       </c>
       <c r="V109" t="n">
-        <v>2.508332877863483</v>
+        <v>2.508332967758179</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10203,7 +10283,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10282,16 +10362,20 @@
         <v>5</v>
       </c>
       <c r="V110" t="n">
-        <v>3.595358463004648</v>
+        <v>3.595358490943909</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
-      </c>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.4633844010312556</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>401</v>
+      </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10454,7 @@
         <v>5</v>
       </c>
       <c r="V111" t="n">
-        <v>3.652961803020961</v>
+        <v>3.652961730957031</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10379,7 +10463,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10542,7 @@
         <v>5</v>
       </c>
       <c r="V112" t="n">
-        <v>3.036570510481217</v>
+        <v>3.03657054901123</v>
       </c>
       <c r="W112" t="n">
         <v>0</v>
@@ -10467,7 +10551,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10546,16 +10630,20 @@
         <v>5</v>
       </c>
       <c r="V113" t="n">
-        <v>2.898441886284764</v>
+        <v>2.898441910743713</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.4508327298139478</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>136</v>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10722,7 @@
         <v>5</v>
       </c>
       <c r="V114" t="n">
-        <v>3.071699219778875</v>
+        <v>3.071699261665344</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10643,7 +10731,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.585076</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10810,7 @@
         <v>5</v>
       </c>
       <c r="V115" t="n">
-        <v>1.961802099637508</v>
+        <v>1.961802124977112</v>
       </c>
       <c r="W115" t="n">
         <v>1</v>
@@ -10735,7 +10823,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.586073</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10902,7 @@
         <v>5</v>
       </c>
       <c r="V116" t="n">
-        <v>2.767926968869247</v>
+        <v>2.767926931381226</v>
       </c>
       <c r="W116" t="n">
         <v>1</v>
@@ -10827,7 +10915,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.586073</t>
         </is>
       </c>
     </row>
@@ -10906,7 +10994,7 @@
         <v>5</v>
       </c>
       <c r="V117" t="n">
-        <v>3.28343209945337</v>
+        <v>3.283432126045227</v>
       </c>
       <c r="W117" t="n">
         <v>1</v>
@@ -10919,7 +11007,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.586073</t>
         </is>
       </c>
     </row>
@@ -10998,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="V118" t="n">
-        <v>4.863893375288336</v>
+        <v>4.863893508911133</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -11007,7 +11095,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.586073</t>
         </is>
       </c>
     </row>
@@ -11086,20 +11174,20 @@
         <v>5</v>
       </c>
       <c r="V119" t="n">
-        <v>5.319271246311425</v>
+        <v>5.319271087646484</v>
       </c>
       <c r="W119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X119" t="n">
-        <v>0.4244076469689558</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y119" t="n">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.586073</t>
         </is>
       </c>
     </row>
@@ -11178,20 +11266,20 @@
         <v>5</v>
       </c>
       <c r="V120" t="n">
-        <v>3.098768066081312</v>
+        <v>3.09876811504364</v>
       </c>
       <c r="W120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5550265646722229</v>
+        <v>0.4321616102834998</v>
       </c>
       <c r="Y120" t="n">
         <v>250</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11358,7 @@
         <v>5</v>
       </c>
       <c r="V121" t="n">
-        <v>2.522789896317004</v>
+        <v>2.522789835929871</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11279,7 +11367,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11358,7 +11446,7 @@
         <v>5</v>
       </c>
       <c r="V122" t="n">
-        <v>5.105097165640974</v>
+        <v>5.105097055435181</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
@@ -11367,7 +11455,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11446,7 +11534,7 @@
         <v>5</v>
       </c>
       <c r="V123" t="n">
-        <v>2.273631535828979</v>
+        <v>2.273631572723389</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
@@ -11455,7 +11543,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11622,7 @@
         <v>5</v>
       </c>
       <c r="V124" t="n">
-        <v>4.414014185624146</v>
+        <v>4.414014339447021</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11543,7 +11631,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11710,7 @@
         <v>5</v>
       </c>
       <c r="V125" t="n">
-        <v>3.975702598872472</v>
+        <v>3.97570264339447</v>
       </c>
       <c r="W125" t="n">
         <v>2</v>
@@ -11635,7 +11723,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.587076</t>
         </is>
       </c>
     </row>
@@ -11714,7 +11802,7 @@
         <v>5</v>
       </c>
       <c r="V126" t="n">
-        <v>2.35744656409595</v>
+        <v>2.357446551322937</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11723,7 +11811,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -11802,7 +11890,7 @@
         <v>5</v>
       </c>
       <c r="V127" t="n">
-        <v>3.345661897635173</v>
+        <v>3.345661997795105</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
@@ -11811,7 +11899,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11978,7 @@
         <v>5</v>
       </c>
       <c r="V128" t="n">
-        <v>2.198278483693935</v>
+        <v>2.198278546333313</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
@@ -11899,7 +11987,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -11978,7 +12066,7 @@
         <v>5</v>
       </c>
       <c r="V129" t="n">
-        <v>4.503659560782263</v>
+        <v>4.50365948677063</v>
       </c>
       <c r="W129" t="n">
         <v>1</v>
@@ -11991,7 +12079,7 @@
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -12070,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="V130" t="n">
-        <v>3.654773244781842</v>
+        <v>3.654773235321045</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
@@ -12079,7 +12167,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -12158,16 +12246,20 @@
         <v>5</v>
       </c>
       <c r="V131" t="n">
-        <v>3.239693785385846</v>
+        <v>3.239693880081177</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>229</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.588074</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12338,7 @@
         <v>5</v>
       </c>
       <c r="V132" t="n">
-        <v>2.827063422313711</v>
+        <v>2.82706344127655</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
@@ -12255,7 +12347,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.589074</t>
         </is>
       </c>
     </row>
@@ -12334,7 +12426,7 @@
         <v>5</v>
       </c>
       <c r="V133" t="n">
-        <v>2.775205917435471</v>
+        <v>2.775205969810486</v>
       </c>
       <c r="W133" t="n">
         <v>2</v>
@@ -12347,7 +12439,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.589074</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12518,7 @@
         <v>5</v>
       </c>
       <c r="V134" t="n">
-        <v>3.923145083965248</v>
+        <v>3.923145055770874</v>
       </c>
       <c r="W134" t="n">
         <v>1</v>
@@ -12439,7 +12531,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.589074</t>
         </is>
       </c>
     </row>
@@ -12518,20 +12610,20 @@
         <v>5</v>
       </c>
       <c r="V135" t="n">
-        <v>3.995972630747548</v>
+        <v>3.995972633361816</v>
       </c>
       <c r="W135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X135" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.585663712517545</v>
       </c>
       <c r="Y135" t="n">
-        <v>401</v>
+        <v>286</v>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.589074</t>
         </is>
       </c>
     </row>
@@ -12610,7 +12702,7 @@
         <v>5</v>
       </c>
       <c r="V136" t="n">
-        <v>2.684216777773246</v>
+        <v>2.684216856956482</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
@@ -12619,7 +12711,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.590076</t>
         </is>
       </c>
     </row>
@@ -12698,16 +12790,20 @@
         <v>5</v>
       </c>
       <c r="V137" t="n">
-        <v>5.296214942790533</v>
+        <v>5.296215057373047</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.4645101528477201</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.590076</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12882,7 @@
         <v>5</v>
       </c>
       <c r="V138" t="n">
-        <v>2.301089945272057</v>
+        <v>2.301090002059937</v>
       </c>
       <c r="W138" t="n">
         <v>1</v>
@@ -12799,7 +12895,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.590076</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12974,7 @@
         <v>5</v>
       </c>
       <c r="V139" t="n">
-        <v>3.10731275511171</v>
+        <v>3.107312798500061</v>
       </c>
       <c r="W139" t="n">
         <v>1</v>
@@ -12891,7 +12987,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.590076</t>
         </is>
       </c>
     </row>
@@ -12970,7 +13066,7 @@
         <v>5</v>
       </c>
       <c r="V140" t="n">
-        <v>4.042093618058944</v>
+        <v>4.042093753814697</v>
       </c>
       <c r="W140" t="n">
         <v>1</v>
@@ -12983,7 +13079,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.591074</t>
         </is>
       </c>
     </row>
@@ -13062,7 +13158,7 @@
         <v>5</v>
       </c>
       <c r="V141" t="n">
-        <v>3.49380476959192</v>
+        <v>3.493804693222046</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
@@ -13071,7 +13167,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.591074</t>
         </is>
       </c>
     </row>
@@ -13150,7 +13246,7 @@
         <v>5</v>
       </c>
       <c r="V142" t="n">
-        <v>3.660889535691948</v>
+        <v>3.660889506340027</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -13159,7 +13255,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.591074</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13334,7 @@
         <v>5</v>
       </c>
       <c r="V143" t="n">
-        <v>3.208304807864812</v>
+        <v>3.208304762840271</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
@@ -13247,7 +13343,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.591074</t>
         </is>
       </c>
     </row>
@@ -13326,16 +13422,20 @@
         <v>5</v>
       </c>
       <c r="V144" t="n">
-        <v>3.292069639952221</v>
+        <v>3.292069673538208</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
-      </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.5327003538216112</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>293</v>
+      </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.592078</t>
         </is>
       </c>
     </row>
@@ -13414,16 +13514,20 @@
         <v>5</v>
       </c>
       <c r="V145" t="n">
-        <v>3.107108727432845</v>
+        <v>3.10710871219635</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
-      </c>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.5144584938341676</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>388</v>
+      </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.592078</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13606,7 @@
         <v>5</v>
       </c>
       <c r="V146" t="n">
-        <v>6.318545752970537</v>
+        <v>6.318545579910278</v>
       </c>
       <c r="W146" t="n">
         <v>0</v>
@@ -13511,7 +13615,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.592078</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13694,7 @@
         <v>5</v>
       </c>
       <c r="V147" t="n">
-        <v>3.282615531342176</v>
+        <v>3.282615542411804</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
@@ -13599,7 +13703,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.592078</t>
         </is>
       </c>
     </row>
@@ -13678,20 +13782,20 @@
         <v>5</v>
       </c>
       <c r="V148" t="n">
-        <v>3.189228381015918</v>
+        <v>3.189228415489197</v>
       </c>
       <c r="W148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X148" t="n">
-        <v>0.4092900825439996</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y148" t="n">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.592078</t>
         </is>
       </c>
     </row>
@@ -13770,7 +13874,7 @@
         <v>5</v>
       </c>
       <c r="V149" t="n">
-        <v>3.1068936118883</v>
+        <v>3.106893658638</v>
       </c>
       <c r="W149" t="n">
         <v>1</v>
@@ -13783,7 +13887,7 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.593078</t>
         </is>
       </c>
     </row>
@@ -13862,7 +13966,7 @@
         <v>5</v>
       </c>
       <c r="V150" t="n">
-        <v>2.965338399094129</v>
+        <v>2.965338468551636</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
@@ -13871,7 +13975,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.593078</t>
         </is>
       </c>
     </row>
@@ -13950,7 +14054,7 @@
         <v>5</v>
       </c>
       <c r="V151" t="n">
-        <v>3.38900757408742</v>
+        <v>3.389007568359375</v>
       </c>
       <c r="W151" t="n">
         <v>2</v>
@@ -13963,7 +14067,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:21.989086</t>
+          <t>2025-10-29T23:38:54.593078</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pentropia.xlsx
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,11 +612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.475019</t>
+          <t>2025-11-13T06:51:59.083315</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
@@ -741,13 +741,17 @@
         <v>3.864998698234558</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5135400655639983</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>444</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.475019</t>
+          <t>2025-11-13T06:51:59.083315</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,13 +833,17 @@
         <v>2.847762703895569</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>377</v>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.476021</t>
+          <t>2025-11-13T06:51:59.084316</t>
         </is>
       </c>
     </row>
@@ -862,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -876,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -917,17 +925,13 @@
         <v>18.29147052764893</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4834822006297558</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.476021</t>
+          <t>2025-11-13T06:51:59.084316</t>
         </is>
       </c>
     </row>
@@ -944,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -954,7 +958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -968,11 +972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1015,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.476021</t>
+          <t>2025-11-13T06:51:59.084316</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1042,7 +1046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1056,11 +1060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1097,13 +1101,17 @@
         <v>2.021633386611938</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5495437547794828</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>346</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.476021</t>
+          <t>2025-11-13T06:51:59.084316</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1144,7 +1152,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1191,7 +1199,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.476021</t>
+          <t>2025-11-13T06:51:59.085314</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1226,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1232,7 +1240,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1273,13 +1281,17 @@
         <v>3.232072234153748</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4868788731020857</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>61</v>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.085314</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1320,7 +1332,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1361,17 +1373,13 @@
         <v>4.279626369476318</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.4388760067989746</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.085314</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1406,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1412,7 +1420,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1459,7 +1467,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.085314</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1494,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1500,7 +1508,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
@@ -1541,17 +1549,17 @@
         <v>3.247521758079529</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4543085831639484</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.086314</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1586,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1592,7 +1600,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1633,13 +1641,17 @@
         <v>17.15424919128418</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5424541179848884</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>268</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.086314</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1678,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1680,7 +1692,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1727,7 +1739,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.477018</t>
+          <t>2025-11-13T06:51:59.086314</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1766,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1768,7 +1780,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1809,17 +1821,17 @@
         <v>2.979988813400269</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4090454577821077</v>
       </c>
       <c r="Y15" t="n">
         <v>33</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.478016</t>
+          <t>2025-11-13T06:51:59.086314</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1858,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1860,7 +1872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1901,17 +1913,17 @@
         <v>3.7317134141922</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y16" t="n">
         <v>283</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.478016</t>
+          <t>2025-11-13T06:51:59.086314</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1950,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1952,7 +1964,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1993,17 +2005,13 @@
         <v>8.241034507751465</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5022684797721876</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.478016</t>
+          <t>2025-11-13T06:51:59.087315</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2038,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2044,7 +2052,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2085,17 +2093,13 @@
         <v>2.455918312072754</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.478016</t>
+          <t>2025-11-13T06:51:59.087315</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -2122,7 +2126,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2136,11 +2140,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -2177,13 +2181,17 @@
         <v>2.903743863105774</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5884403511369705</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>65</v>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.478016</t>
+          <t>2025-11-13T06:51:59.087315</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -2210,7 +2218,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2224,11 +2232,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -2271,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.479017</t>
+          <t>2025-11-13T06:51:59.087315</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2306,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2312,7 +2320,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2353,17 +2361,17 @@
         <v>1.787505567073822</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4141881833999855</v>
       </c>
       <c r="Y21" t="n">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.479017</t>
+          <t>2025-11-13T06:51:59.088314</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2404,7 +2412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2445,13 +2453,17 @@
         <v>3.109677195549011</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>68</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.479017</t>
+          <t>2025-11-13T06:51:59.088314</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2490,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2492,7 +2504,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2539,7 +2551,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.479017</t>
+          <t>2025-11-13T06:51:59.088314</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2566,7 +2578,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2580,11 +2592,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2627,7 +2639,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.479017</t>
+          <t>2025-11-13T06:51:59.088314</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2668,7 +2680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2709,17 +2721,17 @@
         <v>2.019299268722534</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5884403511369705</v>
+        <v>0.5230014453398339</v>
       </c>
       <c r="Y25" t="n">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.480016</t>
+          <t>2025-11-13T06:51:59.089316</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2760,7 +2772,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
@@ -2801,13 +2813,17 @@
         <v>5.379607200622559</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5872309548321561</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>371</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.480016</t>
+          <t>2025-11-13T06:51:59.089316</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2834,7 +2850,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2848,11 +2864,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2889,13 +2905,17 @@
         <v>2.081863641738892</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4512413887188916</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.480016</t>
+          <t>2025-11-13T06:51:59.089316</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2942,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2936,7 +2956,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -2983,7 +3003,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.480016</t>
+          <t>2025-11-13T06:51:59.089316</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3010,7 +3030,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3024,11 +3044,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3065,13 +3085,17 @@
         <v>3.506299138069153</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.4436880874433667</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>281</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.089316</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3122,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3112,7 +3136,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3153,17 +3177,17 @@
         <v>2.142898440361023</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y30" t="n">
-        <v>395</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.090317</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3204,7 +3228,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3245,17 +3269,13 @@
         <v>2.036471724510193</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.4863890037284231</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.090317</t>
         </is>
       </c>
     </row>
@@ -3282,7 +3302,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3296,7 +3316,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3343,7 +3363,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.090317</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3390,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3384,7 +3404,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3428,14 +3448,14 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5230014453398339</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y33" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.090317</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3482,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3476,7 +3496,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3517,13 +3537,17 @@
         <v>2.848228096961975</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.501762815367752</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>184</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.481017</t>
+          <t>2025-11-13T06:51:59.091316</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3550,7 +3574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3564,11 +3588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3611,7 +3635,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.482012</t>
+          <t>2025-11-13T06:51:59.091316</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3652,7 +3676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3693,17 +3717,13 @@
         <v>4.0845627784729</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4512413887188916</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.482012</t>
+          <t>2025-11-13T06:51:59.091316</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3750,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3744,7 +3764,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3791,7 +3811,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.482012</t>
+          <t>2025-11-13T06:51:59.091316</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3838,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3832,7 +3852,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3873,17 +3893,17 @@
         <v>2.66642689704895</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.4856368296634629</v>
       </c>
       <c r="Y38" t="n">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.482012</t>
+          <t>2025-11-13T06:51:59.091316</t>
         </is>
       </c>
     </row>
@@ -3910,7 +3930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3924,7 +3944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
@@ -3965,17 +3985,13 @@
         <v>4.571045398712158</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5885707141115961</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.482012</t>
+          <t>2025-11-13T06:51:59.092316</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4016,7 +4032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4057,13 +4073,17 @@
         <v>2.738109350204468</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4593020287295597</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>406</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.483011</t>
+          <t>2025-11-13T06:51:59.092316</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4090,7 +4110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4104,11 +4124,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4145,13 +4165,17 @@
         <v>2.16313362121582</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4777354579378964</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>241</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.483011</t>
+          <t>2025-11-13T06:51:59.092316</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4192,7 +4216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
@@ -4233,13 +4257,17 @@
         <v>2.806650519371033</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>293</v>
+      </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.483011</t>
+          <t>2025-11-13T06:51:59.092316</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4280,7 +4308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
@@ -4327,7 +4355,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.483011</t>
+          <t>2025-11-13T06:51:59.093316</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4382,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4368,7 +4396,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4409,17 +4437,13 @@
         <v>3.636664748191833</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.4148089303468181</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.483011</t>
+          <t>2025-11-13T06:51:59.093316</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4470,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4460,7 +4484,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4501,17 +4525,13 @@
         <v>3.034366965293884</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.5320394753435462</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.484016</t>
+          <t>2025-11-13T06:51:59.093316</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4552,7 +4572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4599,7 +4619,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.484016</t>
+          <t>2025-11-13T06:51:59.093316</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4646,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4640,7 +4660,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4687,7 +4707,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.484016</t>
+          <t>2025-11-13T06:51:59.094373</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4728,7 +4748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4769,17 +4789,13 @@
         <v>3.8158860206604</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.4377414216682759</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.484016</t>
+          <t>2025-11-13T06:51:59.094888</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4820,7 +4836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4864,14 +4880,14 @@
         <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.5116586907214196</v>
       </c>
       <c r="Y49" t="n">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.484016</t>
+          <t>2025-11-13T06:51:59.094888</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4912,7 +4928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -4953,13 +4969,17 @@
         <v>2.735380530357361</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.5989101021594682</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>411</v>
+      </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.487025</t>
+          <t>2025-11-13T06:51:59.094888</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5000,7 +5020,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5041,17 +5061,13 @@
         <v>3.15588116645813</v>
       </c>
       <c r="W51" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.4777354579378964</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.487025</t>
+          <t>2025-11-13T06:51:59.096905</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5094,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5092,7 +5108,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5136,14 +5152,14 @@
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.488019</t>
+          <t>2025-11-13T06:51:59.096905</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5186,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5184,7 +5200,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5228,14 +5244,14 @@
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>0.44571000435946</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y53" t="n">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.488019</t>
+          <t>2025-11-13T06:51:59.097907</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -5262,7 +5278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5276,11 +5292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -5317,13 +5333,17 @@
         <v>3.47460675239563</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>390</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.488019</t>
+          <t>2025-11-13T06:51:59.097907</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -5350,7 +5370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5364,11 +5384,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -5405,13 +5425,17 @@
         <v>2.219000458717346</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.4690142496053366</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>416</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.488019</t>
+          <t>2025-11-13T06:51:59.098905</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5452,7 +5476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
@@ -5493,17 +5517,13 @@
         <v>5.428624868392944</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4593020287295597</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.488019</t>
+          <t>2025-11-13T06:51:59.098905</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5550,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5544,7 +5564,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5585,17 +5605,13 @@
         <v>3.475237488746643</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.4790300472003629</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.098905</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -5622,7 +5638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5636,11 +5652,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -5683,7 +5699,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.098905</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5726,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5724,7 +5740,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
@@ -5765,13 +5781,17 @@
         <v>7.668370008468628</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.4074696377498429</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>120</v>
+      </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.099905</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5798,7 +5818,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5812,11 +5832,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -5859,7 +5879,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.099905</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5906,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5900,7 +5920,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
@@ -5944,14 +5964,14 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.4483704581800904</v>
       </c>
       <c r="Y61" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.099905</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5998,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5992,7 +6012,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6033,13 +6053,17 @@
         <v>5.035804033279419</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5144008398418366</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>141</v>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.489012</t>
+          <t>2025-11-13T06:51:59.099905</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6080,7 +6104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6124,14 +6148,14 @@
         <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>0.473293756916572</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y63" t="n">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.490011</t>
+          <t>2025-11-13T06:51:59.100905</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6172,7 +6196,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6216,14 +6240,14 @@
         <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5677867004138727</v>
       </c>
       <c r="Y64" t="n">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.490011</t>
+          <t>2025-11-13T06:51:59.100905</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6264,7 +6288,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6308,14 +6332,14 @@
         <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4623422152178822</v>
+        <v>0.4092900825439996</v>
       </c>
       <c r="Y65" t="n">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.490011</t>
+          <t>2025-11-13T06:51:59.100905</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6366,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6356,7 +6380,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6397,17 +6421,13 @@
         <v>2.898029208183289</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.4675230342807256</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.490011</t>
+          <t>2025-11-13T06:51:59.100905</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6448,7 +6468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6489,17 +6509,13 @@
         <v>2.190554141998291</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0.5939073734228317</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.490011</t>
+          <t>2025-11-13T06:51:59.100905</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -6526,7 +6542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6540,11 +6556,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="b">
         <v>1</v>
@@ -6587,7 +6603,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.101904</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6630,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6628,7 +6644,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6669,17 +6685,13 @@
         <v>6.16321587562561</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.4895566329146183</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.101904</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6720,7 +6732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
@@ -6761,17 +6773,13 @@
         <v>2.700364351272583</v>
       </c>
       <c r="W70" t="n">
-        <v>4</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.5860033669621664</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.101904</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6812,7 +6820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6853,13 +6861,17 @@
         <v>3.648892879486084</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.425412102530377</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>293</v>
+      </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.101904</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6898,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6900,7 +6912,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -6941,13 +6953,17 @@
         <v>2.320841431617737</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>293</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.101904</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6990,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -6988,7 +7004,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7032,14 +7048,14 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5596590357933551</v>
+        <v>0.4661796049705298</v>
       </c>
       <c r="Y73" t="n">
         <v>326</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.491011</t>
+          <t>2025-11-13T06:51:59.102903</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7082,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7080,7 +7096,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7121,17 +7137,13 @@
         <v>3.194457292556763</v>
       </c>
       <c r="W74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.4074696377498429</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.102903</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7170,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7172,7 +7184,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7213,17 +7225,13 @@
         <v>2.848981857299805</v>
       </c>
       <c r="W75" t="n">
-        <v>1</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0.4807672342116082</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.102903</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7264,7 +7272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7305,13 +7313,17 @@
         <v>2.458168148994446</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4323257428189228</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>286</v>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.102903</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7352,7 +7364,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7393,17 +7405,13 @@
         <v>2.716602325439453</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.102903</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7444,7 +7452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7485,17 +7493,13 @@
         <v>3.182361006736755</v>
       </c>
       <c r="W78" t="n">
-        <v>3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0.5376999801530733</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.103906</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7526,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7536,7 +7540,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7577,17 +7581,13 @@
         <v>3.13527238368988</v>
       </c>
       <c r="W79" t="n">
-        <v>4</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0.4877942841411272</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.492010</t>
+          <t>2025-11-13T06:51:59.103906</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -7614,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7628,11 +7628,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="b">
         <v>1</v>
@@ -7675,7 +7675,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.103906</t>
         </is>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7757,17 +7757,13 @@
         <v>2.348569869995117</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.4092900825439996</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.103906</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -7794,7 +7790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7808,11 +7804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>1</v>
@@ -7855,7 +7851,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.103906</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -7882,7 +7878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7896,11 +7892,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="b">
         <v>1</v>
@@ -7937,13 +7933,17 @@
         <v>2.063066363334656</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.5383790395385386</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>135</v>
+      </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.104918</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8025,17 +8025,13 @@
         <v>4.236417770385742</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
-      </c>
-      <c r="X84" t="n">
-        <v>0.577323429790132</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.104918</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8058,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8076,7 +8072,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8117,13 +8113,17 @@
         <v>4.380986452102661</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.4648690042010548</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>29</v>
+      </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.493010</t>
+          <t>2025-11-13T06:51:59.104918</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -8150,7 +8150,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8164,11 +8164,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="b">
         <v>1</v>
@@ -8211,7 +8211,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.104918</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8238,7 +8238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8252,11 +8252,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8293,13 +8293,17 @@
         <v>3.134974718093872</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.4508327298139478</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>147</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.105743</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8340,7 +8344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8381,17 +8385,13 @@
         <v>2.722260475158691</v>
       </c>
       <c r="W88" t="n">
-        <v>1</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0.5113602524916701</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.105743</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8473,17 +8473,17 @@
         <v>3.729132533073425</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4987787430366869</v>
+        <v>0.5202230023486417</v>
       </c>
       <c r="Y89" t="n">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8524,11 +8524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="b">
         <v>1</v>
@@ -8571,7 +8571,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8653,13 +8653,17 @@
         <v>2.292493104934692</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>43</v>
+      </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.494010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8700,7 +8704,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8741,17 +8745,13 @@
         <v>2.465856075286865</v>
       </c>
       <c r="W92" t="n">
-        <v>2</v>
-      </c>
-      <c r="X92" t="n">
-        <v>0.425412102530377</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8836,14 +8836,14 @@
         <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y93" t="n">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -8928,14 +8928,14 @@
         <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4321616102834998</v>
       </c>
       <c r="Y94" t="n">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -8962,7 +8962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9023,7 +9023,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9105,13 +9105,17 @@
         <v>4.461112976074219</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5960663167432091</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>208</v>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9152,7 +9156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9193,17 +9197,17 @@
         <v>3.251365065574646</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y97" t="n">
         <v>136</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.495010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -9230,7 +9234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9244,11 +9248,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="b">
         <v>1</v>
@@ -9291,7 +9295,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.496010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9332,7 +9336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9379,7 +9383,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.496010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9420,7 +9424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9461,13 +9465,17 @@
         <v>2.211987257003784</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
-      </c>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.5451911357740479</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>286</v>
+      </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.496010</t>
+          <t>2025-11-13T06:51:59.106378</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9508,7 +9516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9555,7 +9563,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.501020</t>
+          <t>2025-11-13T06:51:59.116686</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9590,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9596,7 +9604,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9637,13 +9645,17 @@
         <v>2.74618661403656</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>179</v>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.501020</t>
+          <t>2025-11-13T06:51:59.116686</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9682,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9684,7 +9696,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9731,7 +9743,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.504019</t>
+          <t>2025-11-13T06:51:59.116686</t>
         </is>
       </c>
     </row>
@@ -9758,7 +9770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9772,7 +9784,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9813,13 +9825,17 @@
         <v>5.411996126174927</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
-      </c>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>170</v>
+      </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.504019</t>
+          <t>2025-11-13T06:51:59.116686</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9862,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -9860,7 +9876,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
@@ -9901,17 +9917,17 @@
         <v>3.214111328125</v>
       </c>
       <c r="W105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y105" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.504019</t>
+          <t>2025-11-13T06:51:59.117686</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9954,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -9952,7 +9968,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
@@ -9999,7 +10015,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.505024</t>
+          <t>2025-11-13T06:51:59.117686</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10042,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10040,7 +10056,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10081,17 +10097,13 @@
         <v>2.050779163837433</v>
       </c>
       <c r="W107" t="n">
-        <v>1</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0.4648690042010548</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.505024</t>
+          <t>2025-11-13T06:51:59.117686</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10130,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10132,7 +10144,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10173,13 +10185,17 @@
         <v>3.249354004859924</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.5193700315892974</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>110</v>
+      </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.506017</t>
+          <t>2025-11-13T06:51:59.118689</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10222,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10220,7 +10236,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10261,17 +10277,13 @@
         <v>2.169737458229065</v>
       </c>
       <c r="W109" t="n">
-        <v>2</v>
-      </c>
-      <c r="X109" t="n">
-        <v>0.493119603626492</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.506017</t>
+          <t>2025-11-13T06:51:59.118689</t>
         </is>
       </c>
     </row>
@@ -10298,7 +10310,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10312,7 +10324,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10359,7 +10371,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.118689</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10398,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10400,7 +10412,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10441,17 +10453,13 @@
         <v>3.238019347190857</v>
       </c>
       <c r="W111" t="n">
-        <v>1</v>
-      </c>
-      <c r="X111" t="n">
-        <v>0.5202230023486417</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.118689</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10486,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10492,7 +10500,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10539,7 +10547,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.118689</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -10566,7 +10574,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10580,11 +10588,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="b">
         <v>1</v>
@@ -10621,13 +10629,17 @@
         <v>2.208970308303833</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.5327003538216112</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>108</v>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.119686</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10666,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -10668,7 +10680,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="b">
@@ -10709,17 +10721,17 @@
         <v>2.446838736534119</v>
       </c>
       <c r="W114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>0.436866734866274</v>
+        <v>0.5005358046457723</v>
       </c>
       <c r="Y114" t="n">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.119686</t>
         </is>
       </c>
     </row>
@@ -10736,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -10746,7 +10758,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -10760,11 +10772,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="b">
         <v>1</v>
@@ -10807,7 +10819,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.507015</t>
+          <t>2025-11-13T06:51:59.119686</t>
         </is>
       </c>
     </row>
@@ -10834,7 +10846,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -10848,7 +10860,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="b">
@@ -10895,7 +10907,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.508010</t>
+          <t>2025-11-13T06:51:59.119686</t>
         </is>
       </c>
     </row>
@@ -10922,7 +10934,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -10936,7 +10948,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="b">
@@ -10977,17 +10989,17 @@
         <v>3.366743445396423</v>
       </c>
       <c r="W117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X117" t="n">
-        <v>0.4187963879681738</v>
+        <v>0.4770195457203851</v>
       </c>
       <c r="Y117" t="n">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.508010</t>
+          <t>2025-11-13T06:51:59.119686</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11026,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11028,7 +11040,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="b">
@@ -11069,17 +11081,13 @@
         <v>4.427846670150757</v>
       </c>
       <c r="W118" t="n">
-        <v>2</v>
-      </c>
-      <c r="X118" t="n">
-        <v>0.510552993367098</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.508010</t>
+          <t>2025-11-13T06:51:59.120686</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11114,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -11120,7 +11128,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="b">
@@ -11161,17 +11169,13 @@
         <v>4.879163980484009</v>
       </c>
       <c r="W119" t="n">
-        <v>1</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0.5274859802996413</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.508010</t>
+          <t>2025-11-13T06:51:59.120686</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -11212,7 +11216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="b">
@@ -11256,14 +11260,14 @@
         <v>1</v>
       </c>
       <c r="X120" t="n">
-        <v>0.5960663167432091</v>
+        <v>0.497348430591891</v>
       </c>
       <c r="Y120" t="n">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.508010</t>
+          <t>2025-11-13T06:51:59.120686</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -11290,7 +11294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -11304,11 +11308,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="b">
         <v>1</v>
@@ -11345,13 +11349,17 @@
         <v>2.818434000015259</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
-      </c>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.5284063292308575</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>223</v>
+      </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.120686</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -11378,7 +11386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -11392,11 +11400,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="b">
         <v>1</v>
@@ -11433,13 +11441,17 @@
         <v>2.236281871795654</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
-      </c>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.4705137712668338</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>21</v>
+      </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.121686</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11478,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -11480,7 +11492,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="b">
@@ -11521,17 +11533,17 @@
         <v>3.031773328781128</v>
       </c>
       <c r="W123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.4199949831636006</v>
       </c>
       <c r="Y123" t="n">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.121686</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -11558,7 +11570,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -11572,11 +11584,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="b">
         <v>1</v>
@@ -11613,13 +11625,17 @@
         <v>3.063225507736206</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
-      </c>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.5456432697223719</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>295</v>
+      </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.121686</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11662,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -11660,7 +11676,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="b">
@@ -11704,14 +11720,14 @@
         <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>0.4641560129943472</v>
+        <v>0.4281848449949526</v>
       </c>
       <c r="Y125" t="n">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.121686</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -11738,7 +11754,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -11752,11 +11768,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="b">
         <v>1</v>
@@ -11799,7 +11815,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.509010</t>
+          <t>2025-11-13T06:51:59.122687</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11842,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -11840,7 +11856,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="b">
@@ -11887,7 +11903,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.122687</t>
         </is>
       </c>
     </row>
@@ -11914,7 +11930,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -11928,7 +11944,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="b">
@@ -11969,17 +11985,13 @@
         <v>2.671683430671692</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.5451911357740479</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.122687</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12018,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -12020,7 +12032,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="b">
@@ -12061,13 +12073,17 @@
         <v>1.809760332107544</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
-      </c>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.5315225784600687</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>265</v>
+      </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.123687</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12110,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -12108,7 +12124,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="b">
@@ -12152,14 +12168,14 @@
         <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.5361410903109534</v>
       </c>
       <c r="Y130" t="n">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.123687</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12202,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -12200,7 +12216,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="b">
@@ -12241,13 +12257,17 @@
         <v>3.078553318977356</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.5481537235508409</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>257</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.123687</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12294,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -12288,7 +12308,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="b">
@@ -12329,17 +12349,17 @@
         <v>3.984445333480835</v>
       </c>
       <c r="W132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5774172848530235</v>
       </c>
       <c r="Y132" t="n">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.510009</t>
+          <t>2025-11-13T06:51:59.123687</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12386,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -12380,7 +12400,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="b">
@@ -12421,17 +12441,13 @@
         <v>4.569465398788452</v>
       </c>
       <c r="W133" t="n">
-        <v>2</v>
-      </c>
-      <c r="X133" t="n">
-        <v>0.516137324287291</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.124687</t>
         </is>
       </c>
     </row>
@@ -12458,7 +12474,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12472,7 +12488,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="b">
@@ -12519,7 +12535,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.124687</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -12546,7 +12562,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -12560,11 +12576,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L135" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="b">
         <v>1</v>
@@ -12607,7 +12623,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.124687</t>
         </is>
       </c>
     </row>
@@ -12634,7 +12650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -12648,7 +12664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="b">
@@ -12692,14 +12708,14 @@
         <v>1</v>
       </c>
       <c r="X136" t="n">
-        <v>0.5590372389537407</v>
+        <v>0.5255788829897272</v>
       </c>
       <c r="Y136" t="n">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.124687</t>
         </is>
       </c>
     </row>
@@ -12716,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -12726,7 +12742,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -12740,11 +12756,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="b">
         <v>1</v>
@@ -12781,13 +12797,17 @@
         <v>1.941580653190613</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.5580351081062411</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>58</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.124687</t>
         </is>
       </c>
     </row>
@@ -12814,7 +12834,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -12828,7 +12848,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="b">
@@ -12869,17 +12889,13 @@
         <v>4.126085758209229</v>
       </c>
       <c r="W138" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.511009</t>
+          <t>2025-11-13T06:51:59.125686</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12922,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -12920,7 +12936,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="b">
@@ -12961,17 +12977,13 @@
         <v>3.553491353988647</v>
       </c>
       <c r="W139" t="n">
-        <v>1</v>
-      </c>
-      <c r="X139" t="n">
-        <v>0.4914530323227457</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.512009</t>
+          <t>2025-11-13T06:51:59.125686</t>
         </is>
       </c>
     </row>
@@ -12988,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -12998,7 +13010,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -13012,11 +13024,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="b">
         <v>1</v>
@@ -13053,13 +13065,17 @@
         <v>2.059907197952271</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
-      </c>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.4301435087930859</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>52</v>
+      </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.512009</t>
+          <t>2025-11-13T06:51:59.125686</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13102,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -13100,7 +13116,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="b">
@@ -13147,7 +13163,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.512009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13174,7 +13190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -13188,7 +13204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="b">
@@ -13235,7 +13251,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.512009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -13262,7 +13278,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -13276,11 +13292,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="b">
         <v>1</v>
@@ -13317,13 +13333,17 @@
         <v>6.529798984527588</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
-      </c>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0.5045465658763988</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>312</v>
+      </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.512009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13370,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -13364,7 +13384,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="b">
@@ -13405,13 +13425,17 @@
         <v>1.851258158683777</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
-      </c>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.5157729791015118</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>379</v>
+      </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13462,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -13452,7 +13476,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="b">
@@ -13493,17 +13517,17 @@
         <v>4.207494974136353</v>
       </c>
       <c r="W145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X145" t="n">
-        <v>0.5327003538216112</v>
+        <v>0.577323429790132</v>
       </c>
       <c r="Y145" t="n">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13554,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -13544,7 +13568,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="b">
@@ -13585,17 +13609,13 @@
         <v>3.347555041313171</v>
       </c>
       <c r="W146" t="n">
-        <v>2</v>
-      </c>
-      <c r="X146" t="n">
-        <v>0.5992507399515848</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.126684</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13642,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -13636,7 +13656,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="b">
@@ -13677,13 +13697,17 @@
         <v>8.398797512054443</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
-      </c>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0.4899508266739531</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>421</v>
+      </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13734,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -13724,7 +13748,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="b">
@@ -13768,14 +13792,14 @@
         <v>1</v>
       </c>
       <c r="X148" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y148" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -13802,7 +13826,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -13816,7 +13840,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="b">
@@ -13857,17 +13881,13 @@
         <v>2.447316527366638</v>
       </c>
       <c r="W149" t="n">
-        <v>1</v>
-      </c>
-      <c r="X149" t="n">
-        <v>0.4770195457203851</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.513009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -13908,7 +13928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="b">
@@ -13949,17 +13969,13 @@
         <v>5.474562883377075</v>
       </c>
       <c r="W150" t="n">
-        <v>1</v>
-      </c>
-      <c r="X150" t="n">
-        <v>0.5909730561326387</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -13976,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -13986,7 +14002,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -14000,11 +14016,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O151" t="b">
         <v>1</v>
@@ -14047,7 +14063,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -14074,7 +14090,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -14088,7 +14104,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="b">
@@ -14129,13 +14145,17 @@
         <v>3.469574451446533</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
-      </c>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0.4515883255430311</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>300</v>
+      </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -14162,7 +14182,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -14176,11 +14196,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="b">
         <v>1</v>
@@ -14217,13 +14237,17 @@
         <v>3.768404364585876</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
-      </c>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0.4163188360800481</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>72</v>
+      </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -14250,7 +14274,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -14264,11 +14288,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L154" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="b">
         <v>1</v>
@@ -14311,7 +14335,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -14338,7 +14362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -14352,7 +14376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="b">
@@ -14399,7 +14423,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.514009</t>
+          <t>2025-11-13T06:51:59.127683</t>
         </is>
       </c>
     </row>
@@ -14426,7 +14450,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -14440,7 +14464,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="b">
@@ -14487,7 +14511,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.515009</t>
+          <t>2025-11-13T06:51:59.128682</t>
         </is>
       </c>
     </row>
@@ -14504,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -14514,7 +14538,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -14528,11 +14552,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" t="b">
         <v>1</v>
@@ -14575,7 +14599,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.515009</t>
+          <t>2025-11-13T06:51:59.128682</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -14616,7 +14640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="b">
@@ -14657,17 +14681,13 @@
         <v>3.647702217102051</v>
       </c>
       <c r="W158" t="n">
-        <v>1</v>
-      </c>
-      <c r="X158" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.515009</t>
+          <t>2025-11-13T06:51:59.129073</t>
         </is>
       </c>
     </row>
@@ -14694,7 +14714,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -14708,7 +14728,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="b">
@@ -14752,14 +14772,14 @@
         <v>1</v>
       </c>
       <c r="X159" t="n">
-        <v>0.4199949831636006</v>
+        <v>0.4559120683593517</v>
       </c>
       <c r="Y159" t="n">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.515009</t>
+          <t>2025-11-13T06:51:59.130781</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14806,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -14800,7 +14820,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="b">
@@ -14847,7 +14867,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.515009</t>
+          <t>2025-11-13T06:51:59.130781</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -14874,7 +14894,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -14888,11 +14908,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="b">
         <v>1</v>
@@ -14929,13 +14949,17 @@
         <v>3.315830826759338</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
-      </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0.4377414216682759</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>22</v>
+      </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.516014</t>
+          <t>2025-11-13T06:51:59.130781</t>
         </is>
       </c>
     </row>
@@ -14962,7 +14986,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -14976,7 +15000,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="b">
@@ -15020,14 +15044,14 @@
         <v>2</v>
       </c>
       <c r="X162" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.5404968167974218</v>
       </c>
       <c r="Y162" t="n">
         <v>281</v>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.516014</t>
+          <t>2025-11-13T06:51:59.131349</t>
         </is>
       </c>
     </row>
@@ -15044,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -15054,7 +15078,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -15068,11 +15092,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" t="b">
         <v>1</v>
@@ -15115,7 +15139,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.516014</t>
+          <t>2025-11-13T06:51:59.131349</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -15156,7 +15180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="b">
@@ -15203,7 +15227,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.516014</t>
+          <t>2025-11-13T06:51:59.131349</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15254,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -15244,7 +15268,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="b">
@@ -15285,13 +15309,17 @@
         <v>2.757277607917786</v>
       </c>
       <c r="W165" t="n">
-        <v>0</v>
-      </c>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0.5422299064876035</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>286</v>
+      </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.517013</t>
+          <t>2025-11-13T06:51:59.131349</t>
         </is>
       </c>
     </row>
@@ -15308,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -15318,7 +15346,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -15332,11 +15360,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="b">
         <v>1</v>
@@ -15373,13 +15401,17 @@
         <v>5.647400856018066</v>
       </c>
       <c r="W166" t="n">
-        <v>0</v>
-      </c>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0.4239730734667366</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>294</v>
+      </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.517013</t>
+          <t>2025-11-13T06:51:59.132350</t>
         </is>
       </c>
     </row>
@@ -15406,7 +15438,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -15420,7 +15452,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="b">
@@ -15461,13 +15493,17 @@
         <v>2.716691493988037</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>54</v>
+      </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.517013</t>
+          <t>2025-11-13T06:51:59.132350</t>
         </is>
       </c>
     </row>
@@ -15494,7 +15530,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -15508,7 +15544,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="b">
@@ -15549,17 +15585,13 @@
         <v>2.90464448928833</v>
       </c>
       <c r="W168" t="n">
-        <v>2</v>
-      </c>
-      <c r="X168" t="n">
-        <v>0.5085080461109799</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.518012</t>
+          <t>2025-11-13T06:51:59.132350</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15618,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -15600,7 +15632,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="b">
@@ -15641,17 +15673,13 @@
         <v>2.519846200942993</v>
       </c>
       <c r="W169" t="n">
-        <v>3</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5830427455252961</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.521017</t>
+          <t>2025-11-13T06:51:59.132350</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -15678,7 +15706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -15692,11 +15720,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" t="b">
         <v>1</v>
@@ -15733,13 +15761,17 @@
         <v>2.513474822044373</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.5424358442695072</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>411</v>
+      </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.521017</t>
+          <t>2025-11-13T06:51:59.133347</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -15780,7 +15812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="b">
@@ -15824,14 +15856,14 @@
         <v>1</v>
       </c>
       <c r="X171" t="n">
-        <v>0.5481537235508409</v>
+        <v>0.5947511037682918</v>
       </c>
       <c r="Y171" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:59.522016</t>
+          <t>2025-11-13T06:51:59.133347</t>
         </is>
       </c>
     </row>
